--- a/source/tutorials/data/Ground vortex aerodynamics Figure10a.xlsx
+++ b/source/tutorials/data/Ground vortex aerodynamics Figure10a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanze\Documents\GitHub\distortion\source\tutorials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE54BC33-536C-4706-B387-C86F78372962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3156050-1CC8-46C0-AC85-5751E721CC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7417" yWindow="0" windowWidth="15083" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ground vortex aerodynamics Figu" sheetId="1" r:id="rId1"/>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="D261" sqref="D261:D262"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="G327" sqref="G327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -990,14 +990,15 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" cm="1">
+        <f t="array" ref="D2">_xlfn.SWITCH($G2,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2" cm="1">
-        <f t="array" ref="H2">_xlfn.SWITCH(G2,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H2">_xlfn.SWITCH($G2,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="J2" t="s">
@@ -1020,14 +1021,15 @@
       <c r="C3">
         <v>0.17453292500000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">_xlfn.SWITCH($G3,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" cm="1">
-        <f t="array" ref="H3">_xlfn.SWITCH(G3,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H3">_xlfn.SWITCH($G3,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -1050,14 +1052,15 @@
       <c r="C4">
         <v>0.34906585000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">_xlfn.SWITCH($G4,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
       <c r="H4" cm="1">
-        <f t="array" ref="H4">_xlfn.SWITCH(G4,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H4">_xlfn.SWITCH($G4,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="J4" t="s">
@@ -1080,14 +1083,15 @@
       <c r="C5">
         <v>0.52359877600000004</v>
       </c>
-      <c r="D5">
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">_xlfn.SWITCH($G5,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" cm="1">
-        <f t="array" ref="H5">_xlfn.SWITCH(G5,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H5">_xlfn.SWITCH($G5,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="J5" t="s">
@@ -1110,14 +1114,15 @@
       <c r="C6">
         <v>0.69813170099999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">_xlfn.SWITCH($G6,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6" cm="1">
-        <f t="array" ref="H6">_xlfn.SWITCH(G6,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H6">_xlfn.SWITCH($G6,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="J6" t="s">
@@ -1140,14 +1145,15 @@
       <c r="C7">
         <v>0.87266462600000005</v>
       </c>
-      <c r="D7">
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">_xlfn.SWITCH($G7,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7">_xlfn.SWITCH(G7,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H7">_xlfn.SWITCH($G7,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="J7" t="s">
@@ -1170,14 +1176,15 @@
       <c r="C8">
         <v>1.047197551</v>
       </c>
-      <c r="D8">
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">_xlfn.SWITCH($G8,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
       <c r="H8" cm="1">
-        <f t="array" ref="H8">_xlfn.SWITCH(G8,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H8">_xlfn.SWITCH($G8,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="J8" t="s">
@@ -1200,14 +1207,15 @@
       <c r="C9">
         <v>1.2217304760000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">_xlfn.SWITCH($G9,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
       <c r="H9" cm="1">
-        <f t="array" ref="H9">_xlfn.SWITCH(G9,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H9">_xlfn.SWITCH($G9,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1221,14 +1229,15 @@
       <c r="C10">
         <v>1.396263402</v>
       </c>
-      <c r="D10">
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">_xlfn.SWITCH($G10,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
       </c>
       <c r="H10" cm="1">
-        <f t="array" ref="H10">_xlfn.SWITCH(G10,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H10">_xlfn.SWITCH($G10,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1242,14 +1251,15 @@
       <c r="C11">
         <v>1.570796327</v>
       </c>
-      <c r="D11">
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">_xlfn.SWITCH($G11,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
       <c r="H11" cm="1">
-        <f t="array" ref="H11">_xlfn.SWITCH(G11,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H11">_xlfn.SWITCH($G11,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1263,14 +1273,15 @@
       <c r="C12">
         <v>1.6580627889999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">_xlfn.SWITCH($G12,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
       <c r="H12" cm="1">
-        <f t="array" ref="H12">_xlfn.SWITCH(G12,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H12">_xlfn.SWITCH($G12,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1284,14 +1295,15 @@
       <c r="C13">
         <v>1.7453292520000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">_xlfn.SWITCH($G13,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
       </c>
       <c r="H13" cm="1">
-        <f t="array" ref="H13">_xlfn.SWITCH(G13,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H13">_xlfn.SWITCH($G13,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1305,14 +1317,15 @@
       <c r="C14">
         <v>1.8325957150000001</v>
       </c>
-      <c r="D14">
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">_xlfn.SWITCH($G14,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
       <c r="H14" cm="1">
-        <f t="array" ref="H14">_xlfn.SWITCH(G14,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H14">_xlfn.SWITCH($G14,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1326,14 +1339,15 @@
       <c r="C15">
         <v>1.9198621769999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">_xlfn.SWITCH($G15,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
       </c>
       <c r="H15" cm="1">
-        <f t="array" ref="H15">_xlfn.SWITCH(G15,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H15">_xlfn.SWITCH($G15,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1347,14 +1361,15 @@
       <c r="C16">
         <v>2.0071286399999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">_xlfn.SWITCH($G16,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
       </c>
       <c r="H16" cm="1">
-        <f t="array" ref="H16">_xlfn.SWITCH(G16,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H16">_xlfn.SWITCH($G16,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1368,14 +1383,15 @@
       <c r="C17">
         <v>2.094395102</v>
       </c>
-      <c r="D17">
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">_xlfn.SWITCH($G17,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
       </c>
       <c r="H17" cm="1">
-        <f t="array" ref="H17">_xlfn.SWITCH(G17,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H17">_xlfn.SWITCH($G17,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1389,14 +1405,15 @@
       <c r="C18">
         <v>2.1816615650000002</v>
       </c>
-      <c r="D18">
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">_xlfn.SWITCH($G18,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
       </c>
       <c r="H18" cm="1">
-        <f t="array" ref="H18">_xlfn.SWITCH(G18,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H18">_xlfn.SWITCH($G18,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1410,14 +1427,15 @@
       <c r="C19">
         <v>2.2689280279999999</v>
       </c>
-      <c r="D19">
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">_xlfn.SWITCH($G19,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
       <c r="H19" cm="1">
-        <f t="array" ref="H19">_xlfn.SWITCH(G19,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H19">_xlfn.SWITCH($G19,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1431,14 +1449,15 @@
       <c r="C20">
         <v>2.35619449</v>
       </c>
-      <c r="D20">
+      <c r="D20" cm="1">
+        <f t="array" ref="D20">_xlfn.SWITCH($G20,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
       </c>
       <c r="H20" cm="1">
-        <f t="array" ref="H20">_xlfn.SWITCH(G20,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H20">_xlfn.SWITCH($G20,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1452,14 +1471,15 @@
       <c r="C21">
         <v>2.4434609530000002</v>
       </c>
-      <c r="D21">
+      <c r="D21" cm="1">
+        <f t="array" ref="D21">_xlfn.SWITCH($G21,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
       </c>
       <c r="H21" cm="1">
-        <f t="array" ref="H21">_xlfn.SWITCH(G21,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H21">_xlfn.SWITCH($G21,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1473,14 +1493,15 @@
       <c r="C22">
         <v>2.5307274149999999</v>
       </c>
-      <c r="D22">
+      <c r="D22" cm="1">
+        <f t="array" ref="D22">_xlfn.SWITCH($G22,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
       </c>
       <c r="H22" cm="1">
-        <f t="array" ref="H22">_xlfn.SWITCH(G22,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H22">_xlfn.SWITCH($G22,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1494,14 +1515,15 @@
       <c r="C23">
         <v>2.6179938780000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" cm="1">
+        <f t="array" ref="D23">_xlfn.SWITCH($G23,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
       </c>
       <c r="H23" cm="1">
-        <f t="array" ref="H23">_xlfn.SWITCH(G23,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H23">_xlfn.SWITCH($G23,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1515,14 +1537,15 @@
       <c r="C24">
         <v>2.7052603409999998</v>
       </c>
-      <c r="D24">
+      <c r="D24" cm="1">
+        <f t="array" ref="D24">_xlfn.SWITCH($G24,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
       <c r="H24" cm="1">
-        <f t="array" ref="H24">_xlfn.SWITCH(G24,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H24">_xlfn.SWITCH($G24,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1536,14 +1559,15 @@
       <c r="C25">
         <v>2.7925268029999999</v>
       </c>
-      <c r="D25">
+      <c r="D25" cm="1">
+        <f t="array" ref="D25">_xlfn.SWITCH($G25,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
       </c>
       <c r="H25" cm="1">
-        <f t="array" ref="H25">_xlfn.SWITCH(G25,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H25">_xlfn.SWITCH($G25,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1557,14 +1581,15 @@
       <c r="C26">
         <v>2.8797932660000001</v>
       </c>
-      <c r="D26">
+      <c r="D26" cm="1">
+        <f t="array" ref="D26">_xlfn.SWITCH($G26,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
       </c>
       <c r="H26" cm="1">
-        <f t="array" ref="H26">_xlfn.SWITCH(G26,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H26">_xlfn.SWITCH($G26,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1578,14 +1603,15 @@
       <c r="C27">
         <v>2.9670597280000002</v>
       </c>
-      <c r="D27">
+      <c r="D27" cm="1">
+        <f t="array" ref="D27">_xlfn.SWITCH($G27,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
       </c>
       <c r="H27" cm="1">
-        <f t="array" ref="H27">_xlfn.SWITCH(G27,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H27">_xlfn.SWITCH($G27,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1599,14 +1625,15 @@
       <c r="C28">
         <v>3.0543261909999999</v>
       </c>
-      <c r="D28">
+      <c r="D28" cm="1">
+        <f t="array" ref="D28">_xlfn.SWITCH($G28,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
       </c>
       <c r="H28" cm="1">
-        <f t="array" ref="H28">_xlfn.SWITCH(G28,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H28">_xlfn.SWITCH($G28,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1620,14 +1647,15 @@
       <c r="C29">
         <v>3.1415926540000001</v>
       </c>
-      <c r="D29">
+      <c r="D29" cm="1">
+        <f t="array" ref="D29">_xlfn.SWITCH($G29,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
       </c>
       <c r="H29" cm="1">
-        <f t="array" ref="H29">_xlfn.SWITCH(G29,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H29">_xlfn.SWITCH($G29,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1641,14 +1669,15 @@
       <c r="C30">
         <v>3.2288591160000002</v>
       </c>
-      <c r="D30">
+      <c r="D30" cm="1">
+        <f t="array" ref="D30">_xlfn.SWITCH($G30,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
       </c>
       <c r="H30" cm="1">
-        <f t="array" ref="H30">_xlfn.SWITCH(G30,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H30">_xlfn.SWITCH($G30,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1662,14 +1691,15 @@
       <c r="C31">
         <v>3.3161255789999999</v>
       </c>
-      <c r="D31">
+      <c r="D31" cm="1">
+        <f t="array" ref="D31">_xlfn.SWITCH($G31,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
       </c>
       <c r="H31" cm="1">
-        <f t="array" ref="H31">_xlfn.SWITCH(G31,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H31">_xlfn.SWITCH($G31,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1683,14 +1713,15 @@
       <c r="C32">
         <v>3.403392041</v>
       </c>
-      <c r="D32">
+      <c r="D32" cm="1">
+        <f t="array" ref="D32">_xlfn.SWITCH($G32,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
       </c>
       <c r="H32" cm="1">
-        <f t="array" ref="H32">_xlfn.SWITCH(G32,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H32">_xlfn.SWITCH($G32,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1704,14 +1735,15 @@
       <c r="C33">
         <v>3.4906585040000002</v>
       </c>
-      <c r="D33">
+      <c r="D33" cm="1">
+        <f t="array" ref="D33">_xlfn.SWITCH($G33,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
       </c>
       <c r="H33" cm="1">
-        <f t="array" ref="H33">_xlfn.SWITCH(G33,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H33">_xlfn.SWITCH($G33,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1725,14 +1757,15 @@
       <c r="C34">
         <v>3.577924967</v>
       </c>
-      <c r="D34">
+      <c r="D34" cm="1">
+        <f t="array" ref="D34">_xlfn.SWITCH($G34,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
       </c>
       <c r="H34" cm="1">
-        <f t="array" ref="H34">_xlfn.SWITCH(G34,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H34">_xlfn.SWITCH($G34,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1746,14 +1779,15 @@
       <c r="C35">
         <v>3.6651914290000001</v>
       </c>
-      <c r="D35">
+      <c r="D35" cm="1">
+        <f t="array" ref="D35">_xlfn.SWITCH($G35,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
       </c>
       <c r="H35" cm="1">
-        <f t="array" ref="H35">_xlfn.SWITCH(G35,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H35">_xlfn.SWITCH($G35,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1767,14 +1801,15 @@
       <c r="C36">
         <v>4.1887902050000001</v>
       </c>
-      <c r="D36">
+      <c r="D36" cm="1">
+        <f t="array" ref="D36">_xlfn.SWITCH($G36,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
       </c>
       <c r="H36" cm="1">
-        <f t="array" ref="H36">_xlfn.SWITCH(G36,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H36">_xlfn.SWITCH($G36,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1788,14 +1823,15 @@
       <c r="C37">
         <v>4.7123889800000001</v>
       </c>
-      <c r="D37">
+      <c r="D37" cm="1">
+        <f t="array" ref="D37">_xlfn.SWITCH($G37,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
       </c>
       <c r="H37" cm="1">
-        <f t="array" ref="H37">_xlfn.SWITCH(G37,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H37">_xlfn.SWITCH($G37,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1809,14 +1845,15 @@
       <c r="C38">
         <v>5.2359877560000001</v>
       </c>
-      <c r="D38">
+      <c r="D38" cm="1">
+        <f t="array" ref="D38">_xlfn.SWITCH($G38,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
       </c>
       <c r="H38" cm="1">
-        <f t="array" ref="H38">_xlfn.SWITCH(G38,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H38">_xlfn.SWITCH($G38,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1830,14 +1867,15 @@
       <c r="C39">
         <v>5.7595865320000001</v>
       </c>
-      <c r="D39">
+      <c r="D39" cm="1">
+        <f t="array" ref="D39">_xlfn.SWITCH($G39,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
       </c>
       <c r="H39" cm="1">
-        <f t="array" ref="H39">_xlfn.SWITCH(G39,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H39">_xlfn.SWITCH($G39,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1851,14 +1889,15 @@
       <c r="C40">
         <v>6.2831853070000001</v>
       </c>
-      <c r="D40">
+      <c r="D40" cm="1">
+        <f t="array" ref="D40">_xlfn.SWITCH($G40,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G40" t="s">
         <v>8</v>
       </c>
       <c r="H40" cm="1">
-        <f t="array" ref="H40">_xlfn.SWITCH(G40,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H40">_xlfn.SWITCH($G40,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1869,14 +1908,15 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41">
+      <c r="D41" cm="1">
+        <f t="array" ref="D41">_xlfn.SWITCH($G41,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
       </c>
       <c r="H41" cm="1">
-        <f t="array" ref="H41">_xlfn.SWITCH(G41,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H41">_xlfn.SWITCH($G41,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1887,14 +1927,15 @@
       <c r="C42">
         <v>0.17453292500000001</v>
       </c>
-      <c r="D42">
+      <c r="D42" cm="1">
+        <f t="array" ref="D42">_xlfn.SWITCH($G42,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G42" t="s">
         <v>8</v>
       </c>
       <c r="H42" cm="1">
-        <f t="array" ref="H42">_xlfn.SWITCH(G42,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H42">_xlfn.SWITCH($G42,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1905,14 +1946,15 @@
       <c r="C43">
         <v>0.34906585000000001</v>
       </c>
-      <c r="D43">
+      <c r="D43" cm="1">
+        <f t="array" ref="D43">_xlfn.SWITCH($G43,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
       </c>
       <c r="H43" cm="1">
-        <f t="array" ref="H43">_xlfn.SWITCH(G43,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H43">_xlfn.SWITCH($G43,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1923,14 +1965,15 @@
       <c r="C44">
         <v>0.52359877600000004</v>
       </c>
-      <c r="D44">
+      <c r="D44" cm="1">
+        <f t="array" ref="D44">_xlfn.SWITCH($G44,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G44" t="s">
         <v>8</v>
       </c>
       <c r="H44" cm="1">
-        <f t="array" ref="H44">_xlfn.SWITCH(G44,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H44">_xlfn.SWITCH($G44,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1941,14 +1984,15 @@
       <c r="C45">
         <v>0.69813170099999999</v>
       </c>
-      <c r="D45">
+      <c r="D45" cm="1">
+        <f t="array" ref="D45">_xlfn.SWITCH($G45,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
       </c>
       <c r="H45" cm="1">
-        <f t="array" ref="H45">_xlfn.SWITCH(G45,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H45">_xlfn.SWITCH($G45,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1959,14 +2003,15 @@
       <c r="C46">
         <v>0.87266462600000005</v>
       </c>
-      <c r="D46">
+      <c r="D46" cm="1">
+        <f t="array" ref="D46">_xlfn.SWITCH($G46,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>8</v>
       </c>
       <c r="H46" cm="1">
-        <f t="array" ref="H46">_xlfn.SWITCH(G46,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H46">_xlfn.SWITCH($G46,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1977,14 +2022,15 @@
       <c r="C47">
         <v>1.047197551</v>
       </c>
-      <c r="D47">
+      <c r="D47" cm="1">
+        <f t="array" ref="D47">_xlfn.SWITCH($G47,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>8</v>
       </c>
       <c r="H47" cm="1">
-        <f t="array" ref="H47">_xlfn.SWITCH(G47,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H47">_xlfn.SWITCH($G47,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1995,14 +2041,15 @@
       <c r="C48">
         <v>1.2217304760000001</v>
       </c>
-      <c r="D48">
+      <c r="D48" cm="1">
+        <f t="array" ref="D48">_xlfn.SWITCH($G48,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G48" t="s">
         <v>8</v>
       </c>
       <c r="H48" cm="1">
-        <f t="array" ref="H48">_xlfn.SWITCH(G48,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H48">_xlfn.SWITCH($G48,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2013,14 +2060,15 @@
       <c r="C49">
         <v>1.396263402</v>
       </c>
-      <c r="D49">
+      <c r="D49" cm="1">
+        <f t="array" ref="D49">_xlfn.SWITCH($G49,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
       </c>
       <c r="H49" cm="1">
-        <f t="array" ref="H49">_xlfn.SWITCH(G49,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H49">_xlfn.SWITCH($G49,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2031,14 +2079,15 @@
       <c r="C50">
         <v>1.570796327</v>
       </c>
-      <c r="D50">
+      <c r="D50" cm="1">
+        <f t="array" ref="D50">_xlfn.SWITCH($G50,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G50" t="s">
         <v>8</v>
       </c>
       <c r="H50" cm="1">
-        <f t="array" ref="H50">_xlfn.SWITCH(G50,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H50">_xlfn.SWITCH($G50,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2049,14 +2098,15 @@
       <c r="C51">
         <v>1.6580627889999999</v>
       </c>
-      <c r="D51">
+      <c r="D51" cm="1">
+        <f t="array" ref="D51">_xlfn.SWITCH($G51,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G51" t="s">
         <v>8</v>
       </c>
       <c r="H51" cm="1">
-        <f t="array" ref="H51">_xlfn.SWITCH(G51,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H51">_xlfn.SWITCH($G51,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2067,14 +2117,15 @@
       <c r="C52">
         <v>1.7453292520000001</v>
       </c>
-      <c r="D52">
+      <c r="D52" cm="1">
+        <f t="array" ref="D52">_xlfn.SWITCH($G52,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G52" t="s">
         <v>8</v>
       </c>
       <c r="H52" cm="1">
-        <f t="array" ref="H52">_xlfn.SWITCH(G52,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H52">_xlfn.SWITCH($G52,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2085,14 +2136,15 @@
       <c r="C53">
         <v>1.8325957150000001</v>
       </c>
-      <c r="D53">
+      <c r="D53" cm="1">
+        <f t="array" ref="D53">_xlfn.SWITCH($G53,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
       </c>
       <c r="H53" cm="1">
-        <f t="array" ref="H53">_xlfn.SWITCH(G53,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H53">_xlfn.SWITCH($G53,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2103,14 +2155,15 @@
       <c r="C54">
         <v>1.9198621769999999</v>
       </c>
-      <c r="D54">
+      <c r="D54" cm="1">
+        <f t="array" ref="D54">_xlfn.SWITCH($G54,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G54" t="s">
         <v>8</v>
       </c>
       <c r="H54" cm="1">
-        <f t="array" ref="H54">_xlfn.SWITCH(G54,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H54">_xlfn.SWITCH($G54,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2121,14 +2174,15 @@
       <c r="C55">
         <v>2.0071286399999999</v>
       </c>
-      <c r="D55">
+      <c r="D55" cm="1">
+        <f t="array" ref="D55">_xlfn.SWITCH($G55,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G55" t="s">
         <v>8</v>
       </c>
       <c r="H55" cm="1">
-        <f t="array" ref="H55">_xlfn.SWITCH(G55,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H55">_xlfn.SWITCH($G55,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2139,14 +2193,15 @@
       <c r="C56">
         <v>2.094395102</v>
       </c>
-      <c r="D56">
+      <c r="D56" cm="1">
+        <f t="array" ref="D56">_xlfn.SWITCH($G56,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G56" t="s">
         <v>8</v>
       </c>
       <c r="H56" cm="1">
-        <f t="array" ref="H56">_xlfn.SWITCH(G56,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H56">_xlfn.SWITCH($G56,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2157,14 +2212,15 @@
       <c r="C57">
         <v>2.1816615650000002</v>
       </c>
-      <c r="D57">
+      <c r="D57" cm="1">
+        <f t="array" ref="D57">_xlfn.SWITCH($G57,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
       </c>
       <c r="H57" cm="1">
-        <f t="array" ref="H57">_xlfn.SWITCH(G57,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H57">_xlfn.SWITCH($G57,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2175,14 +2231,15 @@
       <c r="C58">
         <v>2.2689280279999999</v>
       </c>
-      <c r="D58">
+      <c r="D58" cm="1">
+        <f t="array" ref="D58">_xlfn.SWITCH($G58,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G58" t="s">
         <v>8</v>
       </c>
       <c r="H58" cm="1">
-        <f t="array" ref="H58">_xlfn.SWITCH(G58,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H58">_xlfn.SWITCH($G58,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2193,14 +2250,15 @@
       <c r="C59">
         <v>2.35619449</v>
       </c>
-      <c r="D59">
+      <c r="D59" cm="1">
+        <f t="array" ref="D59">_xlfn.SWITCH($G59,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G59" t="s">
         <v>8</v>
       </c>
       <c r="H59" cm="1">
-        <f t="array" ref="H59">_xlfn.SWITCH(G59,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H59">_xlfn.SWITCH($G59,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2211,14 +2269,15 @@
       <c r="C60">
         <v>2.4434609530000002</v>
       </c>
-      <c r="D60">
+      <c r="D60" cm="1">
+        <f t="array" ref="D60">_xlfn.SWITCH($G60,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G60" t="s">
         <v>8</v>
       </c>
       <c r="H60" cm="1">
-        <f t="array" ref="H60">_xlfn.SWITCH(G60,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H60">_xlfn.SWITCH($G60,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2229,14 +2288,15 @@
       <c r="C61">
         <v>2.5307274149999999</v>
       </c>
-      <c r="D61">
+      <c r="D61" cm="1">
+        <f t="array" ref="D61">_xlfn.SWITCH($G61,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
       </c>
       <c r="H61" cm="1">
-        <f t="array" ref="H61">_xlfn.SWITCH(G61,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H61">_xlfn.SWITCH($G61,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2247,14 +2307,15 @@
       <c r="C62">
         <v>2.6179938780000001</v>
       </c>
-      <c r="D62">
+      <c r="D62" cm="1">
+        <f t="array" ref="D62">_xlfn.SWITCH($G62,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G62" t="s">
         <v>8</v>
       </c>
       <c r="H62" cm="1">
-        <f t="array" ref="H62">_xlfn.SWITCH(G62,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H62">_xlfn.SWITCH($G62,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2265,14 +2326,15 @@
       <c r="C63">
         <v>2.7052603409999998</v>
       </c>
-      <c r="D63">
+      <c r="D63" cm="1">
+        <f t="array" ref="D63">_xlfn.SWITCH($G63,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G63" t="s">
         <v>8</v>
       </c>
       <c r="H63" cm="1">
-        <f t="array" ref="H63">_xlfn.SWITCH(G63,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H63">_xlfn.SWITCH($G63,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2283,14 +2345,15 @@
       <c r="C64">
         <v>2.7925268029999999</v>
       </c>
-      <c r="D64">
+      <c r="D64" cm="1">
+        <f t="array" ref="D64">_xlfn.SWITCH($G64,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G64" t="s">
         <v>8</v>
       </c>
       <c r="H64" cm="1">
-        <f t="array" ref="H64">_xlfn.SWITCH(G64,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H64">_xlfn.SWITCH($G64,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2301,14 +2364,15 @@
       <c r="C65">
         <v>2.8797932660000001</v>
       </c>
-      <c r="D65">
+      <c r="D65" cm="1">
+        <f t="array" ref="D65">_xlfn.SWITCH($G65,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
       </c>
       <c r="H65" cm="1">
-        <f t="array" ref="H65">_xlfn.SWITCH(G65,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H65">_xlfn.SWITCH($G65,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2319,14 +2383,15 @@
       <c r="C66">
         <v>2.9670597280000002</v>
       </c>
-      <c r="D66">
+      <c r="D66" cm="1">
+        <f t="array" ref="D66">_xlfn.SWITCH($G66,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G66" t="s">
         <v>8</v>
       </c>
       <c r="H66" cm="1">
-        <f t="array" ref="H66">_xlfn.SWITCH(G66,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H66">_xlfn.SWITCH($G66,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2337,14 +2402,15 @@
       <c r="C67">
         <v>3.0543261909999999</v>
       </c>
-      <c r="D67">
+      <c r="D67" cm="1">
+        <f t="array" ref="D67">_xlfn.SWITCH($G67,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G67" t="s">
         <v>8</v>
       </c>
       <c r="H67" cm="1">
-        <f t="array" ref="H67">_xlfn.SWITCH(G67,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H67">_xlfn.SWITCH($G67,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2355,14 +2421,15 @@
       <c r="C68">
         <v>3.1415926540000001</v>
       </c>
-      <c r="D68">
+      <c r="D68" cm="1">
+        <f t="array" ref="D68">_xlfn.SWITCH($G68,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G68" t="s">
         <v>8</v>
       </c>
       <c r="H68" cm="1">
-        <f t="array" ref="H68">_xlfn.SWITCH(G68,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H68">_xlfn.SWITCH($G68,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2373,14 +2440,15 @@
       <c r="C69">
         <v>3.2288591160000002</v>
       </c>
-      <c r="D69">
+      <c r="D69" cm="1">
+        <f t="array" ref="D69">_xlfn.SWITCH($G69,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
       </c>
       <c r="H69" cm="1">
-        <f t="array" ref="H69">_xlfn.SWITCH(G69,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H69">_xlfn.SWITCH($G69,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2391,14 +2459,15 @@
       <c r="C70">
         <v>3.3161255789999999</v>
       </c>
-      <c r="D70">
+      <c r="D70" cm="1">
+        <f t="array" ref="D70">_xlfn.SWITCH($G70,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G70" t="s">
         <v>8</v>
       </c>
       <c r="H70" cm="1">
-        <f t="array" ref="H70">_xlfn.SWITCH(G70,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H70">_xlfn.SWITCH($G70,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2409,14 +2478,15 @@
       <c r="C71">
         <v>3.403392041</v>
       </c>
-      <c r="D71">
+      <c r="D71" cm="1">
+        <f t="array" ref="D71">_xlfn.SWITCH($G71,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G71" t="s">
         <v>8</v>
       </c>
       <c r="H71" cm="1">
-        <f t="array" ref="H71">_xlfn.SWITCH(G71,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H71">_xlfn.SWITCH($G71,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2427,14 +2497,15 @@
       <c r="C72">
         <v>3.4906585040000002</v>
       </c>
-      <c r="D72">
+      <c r="D72" cm="1">
+        <f t="array" ref="D72">_xlfn.SWITCH($G72,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G72" t="s">
         <v>8</v>
       </c>
       <c r="H72" cm="1">
-        <f t="array" ref="H72">_xlfn.SWITCH(G72,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H72">_xlfn.SWITCH($G72,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2445,14 +2516,15 @@
       <c r="C73">
         <v>3.577924967</v>
       </c>
-      <c r="D73">
+      <c r="D73" cm="1">
+        <f t="array" ref="D73">_xlfn.SWITCH($G73,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
       </c>
       <c r="H73" cm="1">
-        <f t="array" ref="H73">_xlfn.SWITCH(G73,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H73">_xlfn.SWITCH($G73,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2463,14 +2535,15 @@
       <c r="C74">
         <v>3.6651914290000001</v>
       </c>
-      <c r="D74">
+      <c r="D74" cm="1">
+        <f t="array" ref="D74">_xlfn.SWITCH($G74,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G74" t="s">
         <v>8</v>
       </c>
       <c r="H74" cm="1">
-        <f t="array" ref="H74">_xlfn.SWITCH(G74,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H74">_xlfn.SWITCH($G74,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2481,14 +2554,15 @@
       <c r="C75">
         <v>4.1887902050000001</v>
       </c>
-      <c r="D75">
+      <c r="D75" cm="1">
+        <f t="array" ref="D75">_xlfn.SWITCH($G75,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G75" t="s">
         <v>8</v>
       </c>
       <c r="H75" cm="1">
-        <f t="array" ref="H75">_xlfn.SWITCH(G75,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H75">_xlfn.SWITCH($G75,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2499,14 +2573,15 @@
       <c r="C76">
         <v>4.7123889800000001</v>
       </c>
-      <c r="D76">
+      <c r="D76" cm="1">
+        <f t="array" ref="D76">_xlfn.SWITCH($G76,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G76" t="s">
         <v>8</v>
       </c>
       <c r="H76" cm="1">
-        <f t="array" ref="H76">_xlfn.SWITCH(G76,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H76">_xlfn.SWITCH($G76,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2517,14 +2592,15 @@
       <c r="C77">
         <v>5.2359877560000001</v>
       </c>
-      <c r="D77">
+      <c r="D77" cm="1">
+        <f t="array" ref="D77">_xlfn.SWITCH($G77,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
       </c>
       <c r="H77" cm="1">
-        <f t="array" ref="H77">_xlfn.SWITCH(G77,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H77">_xlfn.SWITCH($G77,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2535,14 +2611,15 @@
       <c r="C78">
         <v>5.7595865320000001</v>
       </c>
-      <c r="D78">
+      <c r="D78" cm="1">
+        <f t="array" ref="D78">_xlfn.SWITCH($G78,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G78" t="s">
         <v>8</v>
       </c>
       <c r="H78" cm="1">
-        <f t="array" ref="H78">_xlfn.SWITCH(G78,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H78">_xlfn.SWITCH($G78,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2553,14 +2630,15 @@
       <c r="C79">
         <v>6.2831853070000001</v>
       </c>
-      <c r="D79">
+      <c r="D79" cm="1">
+        <f t="array" ref="D79">_xlfn.SWITCH($G79,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G79" t="s">
         <v>8</v>
       </c>
       <c r="H79" cm="1">
-        <f t="array" ref="H79">_xlfn.SWITCH(G79,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H79">_xlfn.SWITCH($G79,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2571,14 +2649,15 @@
       <c r="C80">
         <v>0</v>
       </c>
-      <c r="D80">
+      <c r="D80" cm="1">
+        <f t="array" ref="D80">_xlfn.SWITCH($G80,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G80" t="s">
         <v>8</v>
       </c>
       <c r="H80" cm="1">
-        <f t="array" ref="H80">_xlfn.SWITCH(G80,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H80">_xlfn.SWITCH($G80,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2589,14 +2668,15 @@
       <c r="C81">
         <v>0.17453292500000001</v>
       </c>
-      <c r="D81">
+      <c r="D81" cm="1">
+        <f t="array" ref="D81">_xlfn.SWITCH($G81,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
       </c>
       <c r="H81" cm="1">
-        <f t="array" ref="H81">_xlfn.SWITCH(G81,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H81">_xlfn.SWITCH($G81,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2607,14 +2687,15 @@
       <c r="C82">
         <v>0.34906585000000001</v>
       </c>
-      <c r="D82">
+      <c r="D82" cm="1">
+        <f t="array" ref="D82">_xlfn.SWITCH($G82,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G82" t="s">
         <v>8</v>
       </c>
       <c r="H82" cm="1">
-        <f t="array" ref="H82">_xlfn.SWITCH(G82,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H82">_xlfn.SWITCH($G82,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2625,14 +2706,15 @@
       <c r="C83">
         <v>0.52359877600000004</v>
       </c>
-      <c r="D83">
+      <c r="D83" cm="1">
+        <f t="array" ref="D83">_xlfn.SWITCH($G83,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G83" t="s">
         <v>8</v>
       </c>
       <c r="H83" cm="1">
-        <f t="array" ref="H83">_xlfn.SWITCH(G83,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H83">_xlfn.SWITCH($G83,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2643,14 +2725,15 @@
       <c r="C84">
         <v>0.69813170099999999</v>
       </c>
-      <c r="D84">
+      <c r="D84" cm="1">
+        <f t="array" ref="D84">_xlfn.SWITCH($G84,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G84" t="s">
         <v>8</v>
       </c>
       <c r="H84" cm="1">
-        <f t="array" ref="H84">_xlfn.SWITCH(G84,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H84">_xlfn.SWITCH($G84,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2661,14 +2744,15 @@
       <c r="C85">
         <v>0.87266462600000005</v>
       </c>
-      <c r="D85">
+      <c r="D85" cm="1">
+        <f t="array" ref="D85">_xlfn.SWITCH($G85,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
       </c>
       <c r="H85" cm="1">
-        <f t="array" ref="H85">_xlfn.SWITCH(G85,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H85">_xlfn.SWITCH($G85,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2679,14 +2763,15 @@
       <c r="C86">
         <v>1.047197551</v>
       </c>
-      <c r="D86">
+      <c r="D86" cm="1">
+        <f t="array" ref="D86">_xlfn.SWITCH($G86,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G86" t="s">
         <v>8</v>
       </c>
       <c r="H86" cm="1">
-        <f t="array" ref="H86">_xlfn.SWITCH(G86,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H86">_xlfn.SWITCH($G86,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2697,14 +2782,15 @@
       <c r="C87">
         <v>1.2217304760000001</v>
       </c>
-      <c r="D87">
+      <c r="D87" cm="1">
+        <f t="array" ref="D87">_xlfn.SWITCH($G87,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G87" t="s">
         <v>8</v>
       </c>
       <c r="H87" cm="1">
-        <f t="array" ref="H87">_xlfn.SWITCH(G87,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H87">_xlfn.SWITCH($G87,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2715,14 +2801,15 @@
       <c r="C88">
         <v>1.396263402</v>
       </c>
-      <c r="D88">
+      <c r="D88" cm="1">
+        <f t="array" ref="D88">_xlfn.SWITCH($G88,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G88" t="s">
         <v>8</v>
       </c>
       <c r="H88" cm="1">
-        <f t="array" ref="H88">_xlfn.SWITCH(G88,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H88">_xlfn.SWITCH($G88,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2733,14 +2820,15 @@
       <c r="C89">
         <v>1.570796327</v>
       </c>
-      <c r="D89">
+      <c r="D89" cm="1">
+        <f t="array" ref="D89">_xlfn.SWITCH($G89,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
       </c>
       <c r="H89" cm="1">
-        <f t="array" ref="H89">_xlfn.SWITCH(G89,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H89">_xlfn.SWITCH($G89,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2751,14 +2839,15 @@
       <c r="C90">
         <v>1.6580627889999999</v>
       </c>
-      <c r="D90">
+      <c r="D90" cm="1">
+        <f t="array" ref="D90">_xlfn.SWITCH($G90,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G90" t="s">
         <v>8</v>
       </c>
       <c r="H90" cm="1">
-        <f t="array" ref="H90">_xlfn.SWITCH(G90,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H90">_xlfn.SWITCH($G90,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2769,14 +2858,15 @@
       <c r="C91">
         <v>1.7453292520000001</v>
       </c>
-      <c r="D91">
+      <c r="D91" cm="1">
+        <f t="array" ref="D91">_xlfn.SWITCH($G91,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G91" t="s">
         <v>8</v>
       </c>
       <c r="H91" cm="1">
-        <f t="array" ref="H91">_xlfn.SWITCH(G91,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H91">_xlfn.SWITCH($G91,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2787,14 +2877,15 @@
       <c r="C92">
         <v>1.8325957150000001</v>
       </c>
-      <c r="D92">
+      <c r="D92" cm="1">
+        <f t="array" ref="D92">_xlfn.SWITCH($G92,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G92" t="s">
         <v>8</v>
       </c>
       <c r="H92" cm="1">
-        <f t="array" ref="H92">_xlfn.SWITCH(G92,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H92">_xlfn.SWITCH($G92,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2805,14 +2896,15 @@
       <c r="C93">
         <v>1.9198621769999999</v>
       </c>
-      <c r="D93">
+      <c r="D93" cm="1">
+        <f t="array" ref="D93">_xlfn.SWITCH($G93,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
       </c>
       <c r="H93" cm="1">
-        <f t="array" ref="H93">_xlfn.SWITCH(G93,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H93">_xlfn.SWITCH($G93,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2823,14 +2915,15 @@
       <c r="C94">
         <v>2.0071286399999999</v>
       </c>
-      <c r="D94">
+      <c r="D94" cm="1">
+        <f t="array" ref="D94">_xlfn.SWITCH($G94,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G94" t="s">
         <v>8</v>
       </c>
       <c r="H94" cm="1">
-        <f t="array" ref="H94">_xlfn.SWITCH(G94,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H94">_xlfn.SWITCH($G94,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2841,14 +2934,15 @@
       <c r="C95">
         <v>2.094395102</v>
       </c>
-      <c r="D95">
+      <c r="D95" cm="1">
+        <f t="array" ref="D95">_xlfn.SWITCH($G95,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G95" t="s">
         <v>8</v>
       </c>
       <c r="H95" cm="1">
-        <f t="array" ref="H95">_xlfn.SWITCH(G95,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H95">_xlfn.SWITCH($G95,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2859,14 +2953,15 @@
       <c r="C96">
         <v>2.1816615650000002</v>
       </c>
-      <c r="D96">
+      <c r="D96" cm="1">
+        <f t="array" ref="D96">_xlfn.SWITCH($G96,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G96" t="s">
         <v>8</v>
       </c>
       <c r="H96" cm="1">
-        <f t="array" ref="H96">_xlfn.SWITCH(G96,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H96">_xlfn.SWITCH($G96,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2877,14 +2972,15 @@
       <c r="C97">
         <v>2.2689280279999999</v>
       </c>
-      <c r="D97">
+      <c r="D97" cm="1">
+        <f t="array" ref="D97">_xlfn.SWITCH($G97,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
       </c>
       <c r="H97" cm="1">
-        <f t="array" ref="H97">_xlfn.SWITCH(G97,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H97">_xlfn.SWITCH($G97,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2895,14 +2991,15 @@
       <c r="C98">
         <v>2.35619449</v>
       </c>
-      <c r="D98">
+      <c r="D98" cm="1">
+        <f t="array" ref="D98">_xlfn.SWITCH($G98,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G98" t="s">
         <v>8</v>
       </c>
       <c r="H98" cm="1">
-        <f t="array" ref="H98">_xlfn.SWITCH(G98,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H98">_xlfn.SWITCH($G98,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2913,14 +3010,15 @@
       <c r="C99">
         <v>2.4434609530000002</v>
       </c>
-      <c r="D99">
+      <c r="D99" cm="1">
+        <f t="array" ref="D99">_xlfn.SWITCH($G99,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G99" t="s">
         <v>8</v>
       </c>
       <c r="H99" cm="1">
-        <f t="array" ref="H99">_xlfn.SWITCH(G99,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H99">_xlfn.SWITCH($G99,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2931,14 +3029,15 @@
       <c r="C100">
         <v>2.5307274149999999</v>
       </c>
-      <c r="D100">
+      <c r="D100" cm="1">
+        <f t="array" ref="D100">_xlfn.SWITCH($G100,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G100" t="s">
         <v>8</v>
       </c>
       <c r="H100" cm="1">
-        <f t="array" ref="H100">_xlfn.SWITCH(G100,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H100">_xlfn.SWITCH($G100,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2949,14 +3048,15 @@
       <c r="C101">
         <v>2.6179938780000001</v>
       </c>
-      <c r="D101">
+      <c r="D101" cm="1">
+        <f t="array" ref="D101">_xlfn.SWITCH($G101,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G101" t="s">
         <v>8</v>
       </c>
       <c r="H101" cm="1">
-        <f t="array" ref="H101">_xlfn.SWITCH(G101,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H101">_xlfn.SWITCH($G101,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2967,14 +3067,15 @@
       <c r="C102">
         <v>2.7052603409999998</v>
       </c>
-      <c r="D102">
+      <c r="D102" cm="1">
+        <f t="array" ref="D102">_xlfn.SWITCH($G102,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G102" t="s">
         <v>8</v>
       </c>
       <c r="H102" cm="1">
-        <f t="array" ref="H102">_xlfn.SWITCH(G102,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H102">_xlfn.SWITCH($G102,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -2985,14 +3086,15 @@
       <c r="C103">
         <v>2.7925268029999999</v>
       </c>
-      <c r="D103">
+      <c r="D103" cm="1">
+        <f t="array" ref="D103">_xlfn.SWITCH($G103,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G103" t="s">
         <v>8</v>
       </c>
       <c r="H103" cm="1">
-        <f t="array" ref="H103">_xlfn.SWITCH(G103,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H103">_xlfn.SWITCH($G103,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3003,14 +3105,15 @@
       <c r="C104">
         <v>2.8797932660000001</v>
       </c>
-      <c r="D104">
+      <c r="D104" cm="1">
+        <f t="array" ref="D104">_xlfn.SWITCH($G104,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G104" t="s">
         <v>8</v>
       </c>
       <c r="H104" cm="1">
-        <f t="array" ref="H104">_xlfn.SWITCH(G104,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H104">_xlfn.SWITCH($G104,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3021,14 +3124,15 @@
       <c r="C105">
         <v>2.9670597280000002</v>
       </c>
-      <c r="D105">
+      <c r="D105" cm="1">
+        <f t="array" ref="D105">_xlfn.SWITCH($G105,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G105" t="s">
         <v>8</v>
       </c>
       <c r="H105" cm="1">
-        <f t="array" ref="H105">_xlfn.SWITCH(G105,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H105">_xlfn.SWITCH($G105,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3039,14 +3143,15 @@
       <c r="C106">
         <v>3.0543261909999999</v>
       </c>
-      <c r="D106">
+      <c r="D106" cm="1">
+        <f t="array" ref="D106">_xlfn.SWITCH($G106,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G106" t="s">
         <v>8</v>
       </c>
       <c r="H106" cm="1">
-        <f t="array" ref="H106">_xlfn.SWITCH(G106,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H106">_xlfn.SWITCH($G106,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3057,14 +3162,15 @@
       <c r="C107">
         <v>3.1415926540000001</v>
       </c>
-      <c r="D107">
+      <c r="D107" cm="1">
+        <f t="array" ref="D107">_xlfn.SWITCH($G107,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
       </c>
       <c r="H107" cm="1">
-        <f t="array" ref="H107">_xlfn.SWITCH(G107,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H107">_xlfn.SWITCH($G107,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3075,14 +3181,15 @@
       <c r="C108">
         <v>3.2288591160000002</v>
       </c>
-      <c r="D108">
+      <c r="D108" cm="1">
+        <f t="array" ref="D108">_xlfn.SWITCH($G108,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>8</v>
       </c>
       <c r="H108" cm="1">
-        <f t="array" ref="H108">_xlfn.SWITCH(G108,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H108">_xlfn.SWITCH($G108,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3093,14 +3200,15 @@
       <c r="C109">
         <v>3.3161255789999999</v>
       </c>
-      <c r="D109">
+      <c r="D109" cm="1">
+        <f t="array" ref="D109">_xlfn.SWITCH($G109,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G109" t="s">
         <v>8</v>
       </c>
       <c r="H109" cm="1">
-        <f t="array" ref="H109">_xlfn.SWITCH(G109,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H109">_xlfn.SWITCH($G109,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3111,14 +3219,15 @@
       <c r="C110">
         <v>3.403392041</v>
       </c>
-      <c r="D110">
+      <c r="D110" cm="1">
+        <f t="array" ref="D110">_xlfn.SWITCH($G110,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
       </c>
       <c r="H110" cm="1">
-        <f t="array" ref="H110">_xlfn.SWITCH(G110,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H110">_xlfn.SWITCH($G110,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3129,14 +3238,15 @@
       <c r="C111">
         <v>3.4906585040000002</v>
       </c>
-      <c r="D111">
+      <c r="D111" cm="1">
+        <f t="array" ref="D111">_xlfn.SWITCH($G111,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G111" t="s">
         <v>8</v>
       </c>
       <c r="H111" cm="1">
-        <f t="array" ref="H111">_xlfn.SWITCH(G111,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H111">_xlfn.SWITCH($G111,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3147,14 +3257,15 @@
       <c r="C112">
         <v>3.577924967</v>
       </c>
-      <c r="D112">
+      <c r="D112" cm="1">
+        <f t="array" ref="D112">_xlfn.SWITCH($G112,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
       </c>
       <c r="H112" cm="1">
-        <f t="array" ref="H112">_xlfn.SWITCH(G112,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H112">_xlfn.SWITCH($G112,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3165,14 +3276,15 @@
       <c r="C113">
         <v>3.6651914290000001</v>
       </c>
-      <c r="D113">
+      <c r="D113" cm="1">
+        <f t="array" ref="D113">_xlfn.SWITCH($G113,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G113" t="s">
         <v>8</v>
       </c>
       <c r="H113" cm="1">
-        <f t="array" ref="H113">_xlfn.SWITCH(G113,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H113">_xlfn.SWITCH($G113,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3183,14 +3295,15 @@
       <c r="C114">
         <v>4.1887902050000001</v>
       </c>
-      <c r="D114">
+      <c r="D114" cm="1">
+        <f t="array" ref="D114">_xlfn.SWITCH($G114,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G114" t="s">
         <v>8</v>
       </c>
       <c r="H114" cm="1">
-        <f t="array" ref="H114">_xlfn.SWITCH(G114,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H114">_xlfn.SWITCH($G114,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3201,14 +3314,15 @@
       <c r="C115">
         <v>4.7123889800000001</v>
       </c>
-      <c r="D115">
+      <c r="D115" cm="1">
+        <f t="array" ref="D115">_xlfn.SWITCH($G115,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G115" t="s">
         <v>8</v>
       </c>
       <c r="H115" cm="1">
-        <f t="array" ref="H115">_xlfn.SWITCH(G115,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H115">_xlfn.SWITCH($G115,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3219,14 +3333,15 @@
       <c r="C116">
         <v>5.2359877560000001</v>
       </c>
-      <c r="D116">
+      <c r="D116" cm="1">
+        <f t="array" ref="D116">_xlfn.SWITCH($G116,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G116" t="s">
         <v>8</v>
       </c>
       <c r="H116" cm="1">
-        <f t="array" ref="H116">_xlfn.SWITCH(G116,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H116">_xlfn.SWITCH($G116,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3237,14 +3352,15 @@
       <c r="C117">
         <v>5.7595865320000001</v>
       </c>
-      <c r="D117">
+      <c r="D117" cm="1">
+        <f t="array" ref="D117">_xlfn.SWITCH($G117,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G117" t="s">
         <v>8</v>
       </c>
       <c r="H117" cm="1">
-        <f t="array" ref="H117">_xlfn.SWITCH(G117,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H117">_xlfn.SWITCH($G117,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3255,14 +3371,15 @@
       <c r="C118">
         <v>6.2831853070000001</v>
       </c>
-      <c r="D118">
+      <c r="D118" cm="1">
+        <f t="array" ref="D118">_xlfn.SWITCH($G118,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G118" t="s">
         <v>8</v>
       </c>
       <c r="H118" cm="1">
-        <f t="array" ref="H118">_xlfn.SWITCH(G118,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H118">_xlfn.SWITCH($G118,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3273,14 +3390,15 @@
       <c r="C119">
         <v>0</v>
       </c>
-      <c r="D119">
+      <c r="D119" cm="1">
+        <f t="array" ref="D119">_xlfn.SWITCH($G119,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
       </c>
       <c r="H119" cm="1">
-        <f t="array" ref="H119">_xlfn.SWITCH(G119,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H119">_xlfn.SWITCH($G119,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3291,14 +3409,15 @@
       <c r="C120">
         <v>0.17453292500000001</v>
       </c>
-      <c r="D120">
+      <c r="D120" cm="1">
+        <f t="array" ref="D120">_xlfn.SWITCH($G120,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G120" t="s">
         <v>8</v>
       </c>
       <c r="H120" cm="1">
-        <f t="array" ref="H120">_xlfn.SWITCH(G120,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H120">_xlfn.SWITCH($G120,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3309,14 +3428,15 @@
       <c r="C121">
         <v>0.34906585000000001</v>
       </c>
-      <c r="D121">
+      <c r="D121" cm="1">
+        <f t="array" ref="D121">_xlfn.SWITCH($G121,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G121" t="s">
         <v>8</v>
       </c>
       <c r="H121" cm="1">
-        <f t="array" ref="H121">_xlfn.SWITCH(G121,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H121">_xlfn.SWITCH($G121,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3327,14 +3447,15 @@
       <c r="C122">
         <v>0.52359877600000004</v>
       </c>
-      <c r="D122">
+      <c r="D122" cm="1">
+        <f t="array" ref="D122">_xlfn.SWITCH($G122,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>8</v>
       </c>
       <c r="H122" cm="1">
-        <f t="array" ref="H122">_xlfn.SWITCH(G122,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H122">_xlfn.SWITCH($G122,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3345,14 +3466,15 @@
       <c r="C123">
         <v>0.69813170099999999</v>
       </c>
-      <c r="D123">
+      <c r="D123" cm="1">
+        <f t="array" ref="D123">_xlfn.SWITCH($G123,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
       </c>
       <c r="H123" cm="1">
-        <f t="array" ref="H123">_xlfn.SWITCH(G123,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H123">_xlfn.SWITCH($G123,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3363,14 +3485,15 @@
       <c r="C124">
         <v>0.87266462600000005</v>
       </c>
-      <c r="D124">
+      <c r="D124" cm="1">
+        <f t="array" ref="D124">_xlfn.SWITCH($G124,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G124" t="s">
         <v>8</v>
       </c>
       <c r="H124" cm="1">
-        <f t="array" ref="H124">_xlfn.SWITCH(G124,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H124">_xlfn.SWITCH($G124,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3381,14 +3504,15 @@
       <c r="C125">
         <v>1.047197551</v>
       </c>
-      <c r="D125">
+      <c r="D125" cm="1">
+        <f t="array" ref="D125">_xlfn.SWITCH($G125,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G125" t="s">
         <v>8</v>
       </c>
       <c r="H125" cm="1">
-        <f t="array" ref="H125">_xlfn.SWITCH(G125,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H125">_xlfn.SWITCH($G125,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3399,14 +3523,15 @@
       <c r="C126">
         <v>1.2217304760000001</v>
       </c>
-      <c r="D126">
+      <c r="D126" cm="1">
+        <f t="array" ref="D126">_xlfn.SWITCH($G126,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G126" t="s">
         <v>8</v>
       </c>
       <c r="H126" cm="1">
-        <f t="array" ref="H126">_xlfn.SWITCH(G126,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H126">_xlfn.SWITCH($G126,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3417,14 +3542,15 @@
       <c r="C127">
         <v>1.396263402</v>
       </c>
-      <c r="D127">
+      <c r="D127" cm="1">
+        <f t="array" ref="D127">_xlfn.SWITCH($G127,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
       </c>
       <c r="H127" cm="1">
-        <f t="array" ref="H127">_xlfn.SWITCH(G127,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H127">_xlfn.SWITCH($G127,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3435,14 +3561,15 @@
       <c r="C128">
         <v>1.570796327</v>
       </c>
-      <c r="D128">
+      <c r="D128" cm="1">
+        <f t="array" ref="D128">_xlfn.SWITCH($G128,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G128" t="s">
         <v>8</v>
       </c>
       <c r="H128" cm="1">
-        <f t="array" ref="H128">_xlfn.SWITCH(G128,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H128">_xlfn.SWITCH($G128,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3453,14 +3580,15 @@
       <c r="C129">
         <v>1.6580627889999999</v>
       </c>
-      <c r="D129">
+      <c r="D129" cm="1">
+        <f t="array" ref="D129">_xlfn.SWITCH($G129,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G129" t="s">
         <v>8</v>
       </c>
       <c r="H129" cm="1">
-        <f t="array" ref="H129">_xlfn.SWITCH(G129,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H129">_xlfn.SWITCH($G129,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3471,14 +3599,15 @@
       <c r="C130">
         <v>1.7453292520000001</v>
       </c>
-      <c r="D130">
+      <c r="D130" cm="1">
+        <f t="array" ref="D130">_xlfn.SWITCH($G130,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G130" t="s">
         <v>8</v>
       </c>
       <c r="H130" cm="1">
-        <f t="array" ref="H130">_xlfn.SWITCH(G130,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H130">_xlfn.SWITCH($G130,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3489,14 +3618,15 @@
       <c r="C131">
         <v>1.8325957150000001</v>
       </c>
-      <c r="D131">
+      <c r="D131" cm="1">
+        <f t="array" ref="D131">_xlfn.SWITCH($G131,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
       </c>
       <c r="H131" cm="1">
-        <f t="array" ref="H131">_xlfn.SWITCH(G131,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H131">_xlfn.SWITCH($G131,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3507,14 +3637,15 @@
       <c r="C132">
         <v>1.9198621769999999</v>
       </c>
-      <c r="D132">
+      <c r="D132" cm="1">
+        <f t="array" ref="D132">_xlfn.SWITCH($G132,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G132" t="s">
         <v>8</v>
       </c>
       <c r="H132" cm="1">
-        <f t="array" ref="H132">_xlfn.SWITCH(G132,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H132">_xlfn.SWITCH($G132,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3525,14 +3656,15 @@
       <c r="C133">
         <v>2.0071286399999999</v>
       </c>
-      <c r="D133">
+      <c r="D133" cm="1">
+        <f t="array" ref="D133">_xlfn.SWITCH($G133,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G133" t="s">
         <v>8</v>
       </c>
       <c r="H133" cm="1">
-        <f t="array" ref="H133">_xlfn.SWITCH(G133,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H133">_xlfn.SWITCH($G133,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3543,14 +3675,15 @@
       <c r="C134">
         <v>2.094395102</v>
       </c>
-      <c r="D134">
+      <c r="D134" cm="1">
+        <f t="array" ref="D134">_xlfn.SWITCH($G134,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G134" t="s">
         <v>8</v>
       </c>
       <c r="H134" cm="1">
-        <f t="array" ref="H134">_xlfn.SWITCH(G134,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H134">_xlfn.SWITCH($G134,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3561,14 +3694,15 @@
       <c r="C135">
         <v>2.1816615650000002</v>
       </c>
-      <c r="D135">
+      <c r="D135" cm="1">
+        <f t="array" ref="D135">_xlfn.SWITCH($G135,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
       </c>
       <c r="H135" cm="1">
-        <f t="array" ref="H135">_xlfn.SWITCH(G135,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H135">_xlfn.SWITCH($G135,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3579,14 +3713,15 @@
       <c r="C136">
         <v>2.2689280279999999</v>
       </c>
-      <c r="D136">
+      <c r="D136" cm="1">
+        <f t="array" ref="D136">_xlfn.SWITCH($G136,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G136" t="s">
         <v>8</v>
       </c>
       <c r="H136" cm="1">
-        <f t="array" ref="H136">_xlfn.SWITCH(G136,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H136">_xlfn.SWITCH($G136,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3597,14 +3732,15 @@
       <c r="C137">
         <v>2.35619449</v>
       </c>
-      <c r="D137">
+      <c r="D137" cm="1">
+        <f t="array" ref="D137">_xlfn.SWITCH($G137,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G137" t="s">
         <v>8</v>
       </c>
       <c r="H137" cm="1">
-        <f t="array" ref="H137">_xlfn.SWITCH(G137,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H137">_xlfn.SWITCH($G137,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3615,14 +3751,15 @@
       <c r="C138">
         <v>2.4434609530000002</v>
       </c>
-      <c r="D138">
+      <c r="D138" cm="1">
+        <f t="array" ref="D138">_xlfn.SWITCH($G138,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G138" t="s">
         <v>8</v>
       </c>
       <c r="H138" cm="1">
-        <f t="array" ref="H138">_xlfn.SWITCH(G138,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H138">_xlfn.SWITCH($G138,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3633,14 +3770,15 @@
       <c r="C139">
         <v>2.5307274149999999</v>
       </c>
-      <c r="D139">
+      <c r="D139" cm="1">
+        <f t="array" ref="D139">_xlfn.SWITCH($G139,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G139" t="s">
         <v>8</v>
       </c>
       <c r="H139" cm="1">
-        <f t="array" ref="H139">_xlfn.SWITCH(G139,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H139">_xlfn.SWITCH($G139,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3651,14 +3789,15 @@
       <c r="C140">
         <v>2.6179938780000001</v>
       </c>
-      <c r="D140">
+      <c r="D140" cm="1">
+        <f t="array" ref="D140">_xlfn.SWITCH($G140,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G140" t="s">
         <v>8</v>
       </c>
       <c r="H140" cm="1">
-        <f t="array" ref="H140">_xlfn.SWITCH(G140,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H140">_xlfn.SWITCH($G140,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3669,14 +3808,15 @@
       <c r="C141">
         <v>2.7052603409999998</v>
       </c>
-      <c r="D141">
+      <c r="D141" cm="1">
+        <f t="array" ref="D141">_xlfn.SWITCH($G141,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G141" t="s">
         <v>8</v>
       </c>
       <c r="H141" cm="1">
-        <f t="array" ref="H141">_xlfn.SWITCH(G141,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H141">_xlfn.SWITCH($G141,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3687,14 +3827,15 @@
       <c r="C142">
         <v>2.7925268029999999</v>
       </c>
-      <c r="D142">
+      <c r="D142" cm="1">
+        <f t="array" ref="D142">_xlfn.SWITCH($G142,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G142" t="s">
         <v>8</v>
       </c>
       <c r="H142" cm="1">
-        <f t="array" ref="H142">_xlfn.SWITCH(G142,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H142">_xlfn.SWITCH($G142,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3705,14 +3846,15 @@
       <c r="C143">
         <v>2.8797932660000001</v>
       </c>
-      <c r="D143">
+      <c r="D143" cm="1">
+        <f t="array" ref="D143">_xlfn.SWITCH($G143,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G143" t="s">
         <v>8</v>
       </c>
       <c r="H143" cm="1">
-        <f t="array" ref="H143">_xlfn.SWITCH(G143,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H143">_xlfn.SWITCH($G143,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3723,14 +3865,15 @@
       <c r="C144">
         <v>2.9670597280000002</v>
       </c>
-      <c r="D144">
+      <c r="D144" cm="1">
+        <f t="array" ref="D144">_xlfn.SWITCH($G144,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G144" t="s">
         <v>8</v>
       </c>
       <c r="H144" cm="1">
-        <f t="array" ref="H144">_xlfn.SWITCH(G144,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H144">_xlfn.SWITCH($G144,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3741,14 +3884,15 @@
       <c r="C145">
         <v>3.0543261909999999</v>
       </c>
-      <c r="D145">
+      <c r="D145" cm="1">
+        <f t="array" ref="D145">_xlfn.SWITCH($G145,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G145" t="s">
         <v>8</v>
       </c>
       <c r="H145" cm="1">
-        <f t="array" ref="H145">_xlfn.SWITCH(G145,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H145">_xlfn.SWITCH($G145,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3759,14 +3903,15 @@
       <c r="C146">
         <v>3.1415926540000001</v>
       </c>
-      <c r="D146">
+      <c r="D146" cm="1">
+        <f t="array" ref="D146">_xlfn.SWITCH($G146,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G146" t="s">
         <v>8</v>
       </c>
       <c r="H146" cm="1">
-        <f t="array" ref="H146">_xlfn.SWITCH(G146,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H146">_xlfn.SWITCH($G146,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3777,14 +3922,15 @@
       <c r="C147">
         <v>3.2288591160000002</v>
       </c>
-      <c r="D147">
+      <c r="D147" cm="1">
+        <f t="array" ref="D147">_xlfn.SWITCH($G147,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G147" t="s">
         <v>8</v>
       </c>
       <c r="H147" cm="1">
-        <f t="array" ref="H147">_xlfn.SWITCH(G147,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H147">_xlfn.SWITCH($G147,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3795,14 +3941,15 @@
       <c r="C148">
         <v>3.3161255789999999</v>
       </c>
-      <c r="D148">
+      <c r="D148" cm="1">
+        <f t="array" ref="D148">_xlfn.SWITCH($G148,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G148" t="s">
         <v>8</v>
       </c>
       <c r="H148" cm="1">
-        <f t="array" ref="H148">_xlfn.SWITCH(G148,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H148">_xlfn.SWITCH($G148,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3813,14 +3960,15 @@
       <c r="C149">
         <v>3.403392041</v>
       </c>
-      <c r="D149">
+      <c r="D149" cm="1">
+        <f t="array" ref="D149">_xlfn.SWITCH($G149,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G149" t="s">
         <v>8</v>
       </c>
       <c r="H149" cm="1">
-        <f t="array" ref="H149">_xlfn.SWITCH(G149,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H149">_xlfn.SWITCH($G149,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3831,14 +3979,15 @@
       <c r="C150">
         <v>3.4906585040000002</v>
       </c>
-      <c r="D150">
+      <c r="D150" cm="1">
+        <f t="array" ref="D150">_xlfn.SWITCH($G150,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G150" t="s">
         <v>8</v>
       </c>
       <c r="H150" cm="1">
-        <f t="array" ref="H150">_xlfn.SWITCH(G150,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H150">_xlfn.SWITCH($G150,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3849,14 +3998,15 @@
       <c r="C151">
         <v>3.577924967</v>
       </c>
-      <c r="D151">
+      <c r="D151" cm="1">
+        <f t="array" ref="D151">_xlfn.SWITCH($G151,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G151" t="s">
         <v>8</v>
       </c>
       <c r="H151" cm="1">
-        <f t="array" ref="H151">_xlfn.SWITCH(G151,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H151">_xlfn.SWITCH($G151,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3867,14 +4017,15 @@
       <c r="C152">
         <v>3.6651914290000001</v>
       </c>
-      <c r="D152">
+      <c r="D152" cm="1">
+        <f t="array" ref="D152">_xlfn.SWITCH($G152,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G152" t="s">
         <v>8</v>
       </c>
       <c r="H152" cm="1">
-        <f t="array" ref="H152">_xlfn.SWITCH(G152,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H152">_xlfn.SWITCH($G152,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3885,14 +4036,15 @@
       <c r="C153">
         <v>4.1887902050000001</v>
       </c>
-      <c r="D153">
+      <c r="D153" cm="1">
+        <f t="array" ref="D153">_xlfn.SWITCH($G153,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G153" t="s">
         <v>8</v>
       </c>
       <c r="H153" cm="1">
-        <f t="array" ref="H153">_xlfn.SWITCH(G153,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H153">_xlfn.SWITCH($G153,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3903,14 +4055,15 @@
       <c r="C154">
         <v>4.7123889800000001</v>
       </c>
-      <c r="D154">
+      <c r="D154" cm="1">
+        <f t="array" ref="D154">_xlfn.SWITCH($G154,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G154" t="s">
         <v>8</v>
       </c>
       <c r="H154" cm="1">
-        <f t="array" ref="H154">_xlfn.SWITCH(G154,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H154">_xlfn.SWITCH($G154,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3921,14 +4074,15 @@
       <c r="C155">
         <v>5.2359877560000001</v>
       </c>
-      <c r="D155">
+      <c r="D155" cm="1">
+        <f t="array" ref="D155">_xlfn.SWITCH($G155,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G155" t="s">
         <v>8</v>
       </c>
       <c r="H155" cm="1">
-        <f t="array" ref="H155">_xlfn.SWITCH(G155,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H155">_xlfn.SWITCH($G155,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3939,14 +4093,15 @@
       <c r="C156">
         <v>5.7595865320000001</v>
       </c>
-      <c r="D156">
+      <c r="D156" cm="1">
+        <f t="array" ref="D156">_xlfn.SWITCH($G156,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>8</v>
       </c>
       <c r="H156" cm="1">
-        <f t="array" ref="H156">_xlfn.SWITCH(G156,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H156">_xlfn.SWITCH($G156,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3957,14 +4112,15 @@
       <c r="C157">
         <v>6.2831853070000001</v>
       </c>
-      <c r="D157">
+      <c r="D157" cm="1">
+        <f t="array" ref="D157">_xlfn.SWITCH($G157,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G157" t="s">
         <v>8</v>
       </c>
       <c r="H157" cm="1">
-        <f t="array" ref="H157">_xlfn.SWITCH(G157,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H157">_xlfn.SWITCH($G157,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3975,14 +4131,15 @@
       <c r="C158">
         <v>0</v>
       </c>
-      <c r="D158">
+      <c r="D158" cm="1">
+        <f t="array" ref="D158">_xlfn.SWITCH($G158,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G158" t="s">
         <v>8</v>
       </c>
       <c r="H158" cm="1">
-        <f t="array" ref="H158">_xlfn.SWITCH(G158,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H158">_xlfn.SWITCH($G158,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3993,14 +4150,15 @@
       <c r="C159">
         <v>0.17453292500000001</v>
       </c>
-      <c r="D159">
+      <c r="D159" cm="1">
+        <f t="array" ref="D159">_xlfn.SWITCH($G159,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G159" t="s">
         <v>8</v>
       </c>
       <c r="H159" cm="1">
-        <f t="array" ref="H159">_xlfn.SWITCH(G159,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H159">_xlfn.SWITCH($G159,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4011,14 +4169,15 @@
       <c r="C160">
         <v>0.34906585000000001</v>
       </c>
-      <c r="D160">
+      <c r="D160" cm="1">
+        <f t="array" ref="D160">_xlfn.SWITCH($G160,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G160" t="s">
         <v>8</v>
       </c>
       <c r="H160" cm="1">
-        <f t="array" ref="H160">_xlfn.SWITCH(G160,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H160">_xlfn.SWITCH($G160,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4029,14 +4188,15 @@
       <c r="C161">
         <v>0.52359877600000004</v>
       </c>
-      <c r="D161">
+      <c r="D161" cm="1">
+        <f t="array" ref="D161">_xlfn.SWITCH($G161,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G161" t="s">
         <v>8</v>
       </c>
       <c r="H161" cm="1">
-        <f t="array" ref="H161">_xlfn.SWITCH(G161,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H161">_xlfn.SWITCH($G161,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4047,14 +4207,15 @@
       <c r="C162">
         <v>0.69813170099999999</v>
       </c>
-      <c r="D162">
+      <c r="D162" cm="1">
+        <f t="array" ref="D162">_xlfn.SWITCH($G162,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G162" t="s">
         <v>8</v>
       </c>
       <c r="H162" cm="1">
-        <f t="array" ref="H162">_xlfn.SWITCH(G162,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H162">_xlfn.SWITCH($G162,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4065,14 +4226,15 @@
       <c r="C163">
         <v>0.87266462600000005</v>
       </c>
-      <c r="D163">
+      <c r="D163" cm="1">
+        <f t="array" ref="D163">_xlfn.SWITCH($G163,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G163" t="s">
         <v>8</v>
       </c>
       <c r="H163" cm="1">
-        <f t="array" ref="H163">_xlfn.SWITCH(G163,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H163">_xlfn.SWITCH($G163,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4083,14 +4245,15 @@
       <c r="C164">
         <v>1.047197551</v>
       </c>
-      <c r="D164">
+      <c r="D164" cm="1">
+        <f t="array" ref="D164">_xlfn.SWITCH($G164,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G164" t="s">
         <v>8</v>
       </c>
       <c r="H164" cm="1">
-        <f t="array" ref="H164">_xlfn.SWITCH(G164,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H164">_xlfn.SWITCH($G164,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4101,14 +4264,15 @@
       <c r="C165">
         <v>1.2217304760000001</v>
       </c>
-      <c r="D165">
+      <c r="D165" cm="1">
+        <f t="array" ref="D165">_xlfn.SWITCH($G165,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G165" t="s">
         <v>8</v>
       </c>
       <c r="H165" cm="1">
-        <f t="array" ref="H165">_xlfn.SWITCH(G165,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H165">_xlfn.SWITCH($G165,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4119,14 +4283,15 @@
       <c r="C166">
         <v>1.396263402</v>
       </c>
-      <c r="D166">
+      <c r="D166" cm="1">
+        <f t="array" ref="D166">_xlfn.SWITCH($G166,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G166" t="s">
         <v>8</v>
       </c>
       <c r="H166" cm="1">
-        <f t="array" ref="H166">_xlfn.SWITCH(G166,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H166">_xlfn.SWITCH($G166,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4137,14 +4302,15 @@
       <c r="C167">
         <v>1.570796327</v>
       </c>
-      <c r="D167">
+      <c r="D167" cm="1">
+        <f t="array" ref="D167">_xlfn.SWITCH($G167,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G167" t="s">
         <v>8</v>
       </c>
       <c r="H167" cm="1">
-        <f t="array" ref="H167">_xlfn.SWITCH(G167,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H167">_xlfn.SWITCH($G167,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4155,14 +4321,15 @@
       <c r="C168">
         <v>1.6580627889999999</v>
       </c>
-      <c r="D168">
+      <c r="D168" cm="1">
+        <f t="array" ref="D168">_xlfn.SWITCH($G168,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G168" t="s">
         <v>8</v>
       </c>
       <c r="H168" cm="1">
-        <f t="array" ref="H168">_xlfn.SWITCH(G168,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H168">_xlfn.SWITCH($G168,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4173,14 +4340,15 @@
       <c r="C169">
         <v>1.7453292520000001</v>
       </c>
-      <c r="D169">
+      <c r="D169" cm="1">
+        <f t="array" ref="D169">_xlfn.SWITCH($G169,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G169" t="s">
         <v>8</v>
       </c>
       <c r="H169" cm="1">
-        <f t="array" ref="H169">_xlfn.SWITCH(G169,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H169">_xlfn.SWITCH($G169,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4191,14 +4359,15 @@
       <c r="C170">
         <v>1.8325957150000001</v>
       </c>
-      <c r="D170">
+      <c r="D170" cm="1">
+        <f t="array" ref="D170">_xlfn.SWITCH($G170,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G170" t="s">
         <v>8</v>
       </c>
       <c r="H170" cm="1">
-        <f t="array" ref="H170">_xlfn.SWITCH(G170,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H170">_xlfn.SWITCH($G170,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4209,14 +4378,15 @@
       <c r="C171">
         <v>1.9198621769999999</v>
       </c>
-      <c r="D171">
+      <c r="D171" cm="1">
+        <f t="array" ref="D171">_xlfn.SWITCH($G171,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G171" t="s">
         <v>8</v>
       </c>
       <c r="H171" cm="1">
-        <f t="array" ref="H171">_xlfn.SWITCH(G171,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H171">_xlfn.SWITCH($G171,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4227,14 +4397,15 @@
       <c r="C172">
         <v>2.0071286399999999</v>
       </c>
-      <c r="D172">
+      <c r="D172" cm="1">
+        <f t="array" ref="D172">_xlfn.SWITCH($G172,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G172" t="s">
         <v>8</v>
       </c>
       <c r="H172" cm="1">
-        <f t="array" ref="H172">_xlfn.SWITCH(G172,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H172">_xlfn.SWITCH($G172,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4245,14 +4416,15 @@
       <c r="C173">
         <v>2.094395102</v>
       </c>
-      <c r="D173">
+      <c r="D173" cm="1">
+        <f t="array" ref="D173">_xlfn.SWITCH($G173,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G173" t="s">
         <v>8</v>
       </c>
       <c r="H173" cm="1">
-        <f t="array" ref="H173">_xlfn.SWITCH(G173,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H173">_xlfn.SWITCH($G173,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4263,14 +4435,15 @@
       <c r="C174">
         <v>2.1816615650000002</v>
       </c>
-      <c r="D174">
+      <c r="D174" cm="1">
+        <f t="array" ref="D174">_xlfn.SWITCH($G174,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G174" t="s">
         <v>8</v>
       </c>
       <c r="H174" cm="1">
-        <f t="array" ref="H174">_xlfn.SWITCH(G174,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H174">_xlfn.SWITCH($G174,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4281,14 +4454,15 @@
       <c r="C175">
         <v>2.2689280279999999</v>
       </c>
-      <c r="D175">
+      <c r="D175" cm="1">
+        <f t="array" ref="D175">_xlfn.SWITCH($G175,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G175" t="s">
         <v>8</v>
       </c>
       <c r="H175" cm="1">
-        <f t="array" ref="H175">_xlfn.SWITCH(G175,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H175">_xlfn.SWITCH($G175,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4299,14 +4473,15 @@
       <c r="C176">
         <v>2.35619449</v>
       </c>
-      <c r="D176">
+      <c r="D176" cm="1">
+        <f t="array" ref="D176">_xlfn.SWITCH($G176,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G176" t="s">
         <v>8</v>
       </c>
       <c r="H176" cm="1">
-        <f t="array" ref="H176">_xlfn.SWITCH(G176,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H176">_xlfn.SWITCH($G176,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4317,14 +4492,15 @@
       <c r="C177">
         <v>2.4434609530000002</v>
       </c>
-      <c r="D177">
+      <c r="D177" cm="1">
+        <f t="array" ref="D177">_xlfn.SWITCH($G177,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G177" t="s">
         <v>8</v>
       </c>
       <c r="H177" cm="1">
-        <f t="array" ref="H177">_xlfn.SWITCH(G177,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H177">_xlfn.SWITCH($G177,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4335,14 +4511,15 @@
       <c r="C178">
         <v>2.5307274149999999</v>
       </c>
-      <c r="D178">
+      <c r="D178" cm="1">
+        <f t="array" ref="D178">_xlfn.SWITCH($G178,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G178" t="s">
         <v>8</v>
       </c>
       <c r="H178" cm="1">
-        <f t="array" ref="H178">_xlfn.SWITCH(G178,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H178">_xlfn.SWITCH($G178,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4353,15 +4530,16 @@
       <c r="C179">
         <v>2.6179938780000001</v>
       </c>
-      <c r="D179">
-        <v>7.0000000000000007E-2</v>
+      <c r="D179" cm="1">
+        <f t="array" ref="D179">_xlfn.SWITCH($G179,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H179" cm="1">
-        <f t="array" ref="H179">_xlfn.SWITCH(G179,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H179">_xlfn.SWITCH($G179,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.45">
@@ -4371,15 +4549,16 @@
       <c r="C180">
         <v>2.7052603409999998</v>
       </c>
-      <c r="D180">
-        <v>7.0000000000000007E-2</v>
+      <c r="D180" cm="1">
+        <f t="array" ref="D180">_xlfn.SWITCH($G180,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H180" cm="1">
-        <f t="array" ref="H180">_xlfn.SWITCH(G180,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H180">_xlfn.SWITCH($G180,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.45">
@@ -4389,15 +4568,16 @@
       <c r="C181">
         <v>2.7925268029999999</v>
       </c>
-      <c r="D181">
-        <v>7.0000000000000007E-2</v>
+      <c r="D181" cm="1">
+        <f t="array" ref="D181">_xlfn.SWITCH($G181,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H181" cm="1">
-        <f t="array" ref="H181">_xlfn.SWITCH(G181,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H181">_xlfn.SWITCH($G181,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.45">
@@ -4407,15 +4587,16 @@
       <c r="C182">
         <v>2.8797932660000001</v>
       </c>
-      <c r="D182">
-        <v>7.0000000000000007E-2</v>
+      <c r="D182" cm="1">
+        <f t="array" ref="D182">_xlfn.SWITCH($G182,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H182" cm="1">
-        <f t="array" ref="H182">_xlfn.SWITCH(G182,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H182">_xlfn.SWITCH($G182,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.45">
@@ -4425,15 +4606,16 @@
       <c r="C183">
         <v>2.9670597280000002</v>
       </c>
-      <c r="D183">
-        <v>7.0000000000000007E-2</v>
+      <c r="D183" cm="1">
+        <f t="array" ref="D183">_xlfn.SWITCH($G183,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H183" cm="1">
-        <f t="array" ref="H183">_xlfn.SWITCH(G183,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H183">_xlfn.SWITCH($G183,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.45">
@@ -4443,15 +4625,16 @@
       <c r="C184">
         <v>3.0543261909999999</v>
       </c>
-      <c r="D184">
-        <v>7.0000000000000007E-2</v>
+      <c r="D184" cm="1">
+        <f t="array" ref="D184">_xlfn.SWITCH($G184,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H184" cm="1">
-        <f t="array" ref="H184">_xlfn.SWITCH(G184,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H184">_xlfn.SWITCH($G184,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.45">
@@ -4461,15 +4644,16 @@
       <c r="C185">
         <v>3.1415926540000001</v>
       </c>
-      <c r="D185">
-        <v>7.0000000000000007E-2</v>
+      <c r="D185" cm="1">
+        <f t="array" ref="D185">_xlfn.SWITCH($G185,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H185" cm="1">
-        <f t="array" ref="H185">_xlfn.SWITCH(G185,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H185">_xlfn.SWITCH($G185,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.45">
@@ -4479,15 +4663,16 @@
       <c r="C186">
         <v>3.2288591160000002</v>
       </c>
-      <c r="D186">
-        <v>7.0000000000000007E-2</v>
+      <c r="D186" cm="1">
+        <f t="array" ref="D186">_xlfn.SWITCH($G186,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H186" cm="1">
-        <f t="array" ref="H186">_xlfn.SWITCH(G186,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H186">_xlfn.SWITCH($G186,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.45">
@@ -4497,15 +4682,16 @@
       <c r="C187">
         <v>3.3161255789999999</v>
       </c>
-      <c r="D187">
-        <v>7.0000000000000007E-2</v>
+      <c r="D187" cm="1">
+        <f t="array" ref="D187">_xlfn.SWITCH($G187,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H187" cm="1">
-        <f t="array" ref="H187">_xlfn.SWITCH(G187,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H187">_xlfn.SWITCH($G187,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.45">
@@ -4515,14 +4701,15 @@
       <c r="C188">
         <v>3.403392041</v>
       </c>
-      <c r="D188">
+      <c r="D188" cm="1">
+        <f t="array" ref="D188">_xlfn.SWITCH($G188,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G188" t="s">
         <v>8</v>
       </c>
       <c r="H188" cm="1">
-        <f t="array" ref="H188">_xlfn.SWITCH(G188,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H188">_xlfn.SWITCH($G188,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4533,14 +4720,15 @@
       <c r="C189">
         <v>3.4906585040000002</v>
       </c>
-      <c r="D189">
+      <c r="D189" cm="1">
+        <f t="array" ref="D189">_xlfn.SWITCH($G189,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G189" t="s">
         <v>8</v>
       </c>
       <c r="H189" cm="1">
-        <f t="array" ref="H189">_xlfn.SWITCH(G189,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H189">_xlfn.SWITCH($G189,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4551,14 +4739,15 @@
       <c r="C190">
         <v>3.577924967</v>
       </c>
-      <c r="D190">
+      <c r="D190" cm="1">
+        <f t="array" ref="D190">_xlfn.SWITCH($G190,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G190" t="s">
         <v>8</v>
       </c>
       <c r="H190" cm="1">
-        <f t="array" ref="H190">_xlfn.SWITCH(G190,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H190">_xlfn.SWITCH($G190,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4569,14 +4758,15 @@
       <c r="C191">
         <v>3.6651914290000001</v>
       </c>
-      <c r="D191">
+      <c r="D191" cm="1">
+        <f t="array" ref="D191">_xlfn.SWITCH($G191,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G191" t="s">
         <v>8</v>
       </c>
       <c r="H191" cm="1">
-        <f t="array" ref="H191">_xlfn.SWITCH(G191,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H191">_xlfn.SWITCH($G191,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4587,14 +4777,15 @@
       <c r="C192">
         <v>4.1887902050000001</v>
       </c>
-      <c r="D192">
+      <c r="D192" cm="1">
+        <f t="array" ref="D192">_xlfn.SWITCH($G192,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G192" t="s">
         <v>8</v>
       </c>
       <c r="H192" cm="1">
-        <f t="array" ref="H192">_xlfn.SWITCH(G192,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H192">_xlfn.SWITCH($G192,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4605,14 +4796,15 @@
       <c r="C193">
         <v>4.7123889800000001</v>
       </c>
-      <c r="D193">
+      <c r="D193" cm="1">
+        <f t="array" ref="D193">_xlfn.SWITCH($G193,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G193" t="s">
         <v>8</v>
       </c>
       <c r="H193" cm="1">
-        <f t="array" ref="H193">_xlfn.SWITCH(G193,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H193">_xlfn.SWITCH($G193,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4623,14 +4815,15 @@
       <c r="C194">
         <v>5.2359877560000001</v>
       </c>
-      <c r="D194">
+      <c r="D194" cm="1">
+        <f t="array" ref="D194">_xlfn.SWITCH($G194,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G194" t="s">
         <v>8</v>
       </c>
       <c r="H194" cm="1">
-        <f t="array" ref="H194">_xlfn.SWITCH(G194,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H194">_xlfn.SWITCH($G194,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4641,14 +4834,15 @@
       <c r="C195">
         <v>5.7595865320000001</v>
       </c>
-      <c r="D195">
+      <c r="D195" cm="1">
+        <f t="array" ref="D195">_xlfn.SWITCH($G195,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G195" t="s">
         <v>8</v>
       </c>
       <c r="H195" cm="1">
-        <f t="array" ref="H195">_xlfn.SWITCH(G195,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H195">_xlfn.SWITCH($G195,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4659,14 +4853,15 @@
       <c r="C196">
         <v>6.2831853070000001</v>
       </c>
-      <c r="D196">
+      <c r="D196" cm="1">
+        <f t="array" ref="D196">_xlfn.SWITCH($G196,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G196" t="s">
         <v>8</v>
       </c>
       <c r="H196" cm="1">
-        <f t="array" ref="H196">_xlfn.SWITCH(G196,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H196">_xlfn.SWITCH($G196,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4677,14 +4872,15 @@
       <c r="C197">
         <v>0</v>
       </c>
-      <c r="D197">
+      <c r="D197" cm="1">
+        <f t="array" ref="D197">_xlfn.SWITCH($G197,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G197" t="s">
         <v>8</v>
       </c>
       <c r="H197" cm="1">
-        <f t="array" ref="H197">_xlfn.SWITCH(G197,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H197">_xlfn.SWITCH($G197,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4695,14 +4891,15 @@
       <c r="C198">
         <v>0.17453292500000001</v>
       </c>
-      <c r="D198">
+      <c r="D198" cm="1">
+        <f t="array" ref="D198">_xlfn.SWITCH($G198,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G198" t="s">
         <v>8</v>
       </c>
       <c r="H198" cm="1">
-        <f t="array" ref="H198">_xlfn.SWITCH(G198,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H198">_xlfn.SWITCH($G198,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4713,14 +4910,15 @@
       <c r="C199">
         <v>0.34906585000000001</v>
       </c>
-      <c r="D199">
+      <c r="D199" cm="1">
+        <f t="array" ref="D199">_xlfn.SWITCH($G199,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G199" t="s">
         <v>8</v>
       </c>
       <c r="H199" cm="1">
-        <f t="array" ref="H199">_xlfn.SWITCH(G199,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H199">_xlfn.SWITCH($G199,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4731,14 +4929,15 @@
       <c r="C200">
         <v>0.52359877600000004</v>
       </c>
-      <c r="D200">
+      <c r="D200" cm="1">
+        <f t="array" ref="D200">_xlfn.SWITCH($G200,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G200" t="s">
         <v>8</v>
       </c>
       <c r="H200" cm="1">
-        <f t="array" ref="H200">_xlfn.SWITCH(G200,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H200">_xlfn.SWITCH($G200,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4749,14 +4948,15 @@
       <c r="C201">
         <v>0.69813170099999999</v>
       </c>
-      <c r="D201">
+      <c r="D201" cm="1">
+        <f t="array" ref="D201">_xlfn.SWITCH($G201,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G201" t="s">
         <v>8</v>
       </c>
       <c r="H201" cm="1">
-        <f t="array" ref="H201">_xlfn.SWITCH(G201,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H201">_xlfn.SWITCH($G201,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4767,15 +4967,16 @@
       <c r="C202">
         <v>0.87266462600000005</v>
       </c>
-      <c r="D202">
-        <v>7.0000000000000007E-2</v>
+      <c r="D202" cm="1">
+        <f t="array" ref="D202">_xlfn.SWITCH($G202,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H202" cm="1">
-        <f t="array" ref="H202">_xlfn.SWITCH(G202,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H202">_xlfn.SWITCH($G202,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.45">
@@ -4785,15 +4986,16 @@
       <c r="C203">
         <v>1.047197551</v>
       </c>
-      <c r="D203">
-        <v>7.0000000000000007E-2</v>
+      <c r="D203" cm="1">
+        <f t="array" ref="D203">_xlfn.SWITCH($G203,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H203" cm="1">
-        <f t="array" ref="H203">_xlfn.SWITCH(G203,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H203">_xlfn.SWITCH($G203,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.45">
@@ -4803,15 +5005,16 @@
       <c r="C204">
         <v>1.2217304760000001</v>
       </c>
-      <c r="D204">
-        <v>7.0000000000000007E-2</v>
+      <c r="D204" cm="1">
+        <f t="array" ref="D204">_xlfn.SWITCH($G204,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H204" cm="1">
-        <f t="array" ref="H204">_xlfn.SWITCH(G204,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H204">_xlfn.SWITCH($G204,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.45">
@@ -4821,15 +5024,16 @@
       <c r="C205">
         <v>1.396263402</v>
       </c>
-      <c r="D205">
-        <v>7.0000000000000007E-2</v>
+      <c r="D205" cm="1">
+        <f t="array" ref="D205">_xlfn.SWITCH($G205,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H205" cm="1">
-        <f t="array" ref="H205">_xlfn.SWITCH(G205,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H205">_xlfn.SWITCH($G205,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.45">
@@ -4839,15 +5043,16 @@
       <c r="C206">
         <v>1.570796327</v>
       </c>
-      <c r="D206">
-        <v>7.0000000000000007E-2</v>
+      <c r="D206" cm="1">
+        <f t="array" ref="D206">_xlfn.SWITCH($G206,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H206" cm="1">
-        <f t="array" ref="H206">_xlfn.SWITCH(G206,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H206">_xlfn.SWITCH($G206,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.45">
@@ -4857,15 +5062,16 @@
       <c r="C207">
         <v>1.6580627889999999</v>
       </c>
-      <c r="D207">
-        <v>7.0000000000000007E-2</v>
+      <c r="D207" cm="1">
+        <f t="array" ref="D207">_xlfn.SWITCH($G207,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H207" cm="1">
-        <f t="array" ref="H207">_xlfn.SWITCH(G207,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H207">_xlfn.SWITCH($G207,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.45">
@@ -4875,15 +5081,16 @@
       <c r="C208">
         <v>1.7453292520000001</v>
       </c>
-      <c r="D208">
-        <v>7.0000000000000007E-2</v>
+      <c r="D208" cm="1">
+        <f t="array" ref="D208">_xlfn.SWITCH($G208,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H208" cm="1">
-        <f t="array" ref="H208">_xlfn.SWITCH(G208,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H208">_xlfn.SWITCH($G208,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.45">
@@ -4893,14 +5100,15 @@
       <c r="C209">
         <v>1.8325957150000001</v>
       </c>
-      <c r="D209">
+      <c r="D209" cm="1">
+        <f t="array" ref="D209">_xlfn.SWITCH($G209,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G209" t="s">
         <v>8</v>
       </c>
       <c r="H209" cm="1">
-        <f t="array" ref="H209">_xlfn.SWITCH(G209,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H209">_xlfn.SWITCH($G209,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4911,14 +5119,15 @@
       <c r="C210">
         <v>1.9198621769999999</v>
       </c>
-      <c r="D210">
+      <c r="D210" cm="1">
+        <f t="array" ref="D210">_xlfn.SWITCH($G210,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G210" t="s">
         <v>8</v>
       </c>
       <c r="H210" cm="1">
-        <f t="array" ref="H210">_xlfn.SWITCH(G210,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H210">_xlfn.SWITCH($G210,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4929,14 +5138,15 @@
       <c r="C211">
         <v>2.0071286399999999</v>
       </c>
-      <c r="D211">
+      <c r="D211" cm="1">
+        <f t="array" ref="D211">_xlfn.SWITCH($G211,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G211" t="s">
         <v>8</v>
       </c>
       <c r="H211" cm="1">
-        <f t="array" ref="H211">_xlfn.SWITCH(G211,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H211">_xlfn.SWITCH($G211,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4947,15 +5157,16 @@
       <c r="C212">
         <v>2.094395102</v>
       </c>
-      <c r="D212">
-        <v>7.0000000000000007E-2</v>
+      <c r="D212" cm="1">
+        <f t="array" ref="D212">_xlfn.SWITCH($G212,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H212" cm="1">
-        <f t="array" ref="H212">_xlfn.SWITCH(G212,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H212">_xlfn.SWITCH($G212,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.45">
@@ -4965,15 +5176,16 @@
       <c r="C213">
         <v>2.1816615650000002</v>
       </c>
-      <c r="D213">
-        <v>7.0000000000000007E-2</v>
+      <c r="D213" cm="1">
+        <f t="array" ref="D213">_xlfn.SWITCH($G213,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H213" cm="1">
-        <f t="array" ref="H213">_xlfn.SWITCH(G213,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H213">_xlfn.SWITCH($G213,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.45">
@@ -4983,15 +5195,16 @@
       <c r="C214">
         <v>2.2689280279999999</v>
       </c>
-      <c r="D214">
-        <v>7.0000000000000007E-2</v>
+      <c r="D214" cm="1">
+        <f t="array" ref="D214">_xlfn.SWITCH($G214,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H214" cm="1">
-        <f t="array" ref="H214">_xlfn.SWITCH(G214,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H214">_xlfn.SWITCH($G214,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.45">
@@ -5001,14 +5214,15 @@
       <c r="C215">
         <v>2.35619449</v>
       </c>
-      <c r="D215">
+      <c r="D215" cm="1">
+        <f t="array" ref="D215">_xlfn.SWITCH($G215,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G215" t="s">
         <v>8</v>
       </c>
       <c r="H215" cm="1">
-        <f t="array" ref="H215">_xlfn.SWITCH(G215,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H215">_xlfn.SWITCH($G215,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5019,14 +5233,15 @@
       <c r="C216">
         <v>2.4434609530000002</v>
       </c>
-      <c r="D216">
+      <c r="D216" cm="1">
+        <f t="array" ref="D216">_xlfn.SWITCH($G216,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G216" t="s">
         <v>8</v>
       </c>
       <c r="H216" cm="1">
-        <f t="array" ref="H216">_xlfn.SWITCH(G216,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H216">_xlfn.SWITCH($G216,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5037,15 +5252,16 @@
       <c r="C217">
         <v>2.5307274149999999</v>
       </c>
-      <c r="D217">
-        <v>7.0000000000000007E-2</v>
+      <c r="D217" cm="1">
+        <f t="array" ref="D217">_xlfn.SWITCH($G217,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H217" cm="1">
-        <f t="array" ref="H217">_xlfn.SWITCH(G217,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H217">_xlfn.SWITCH($G217,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.45">
@@ -5055,15 +5271,16 @@
       <c r="C218">
         <v>2.6179938780000001</v>
       </c>
-      <c r="D218">
-        <v>0.36</v>
+      <c r="D218" cm="1">
+        <f t="array" ref="D218">_xlfn.SWITCH($G218,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H218" cm="1">
-        <f t="array" ref="H218">_xlfn.SWITCH(G218,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H218">_xlfn.SWITCH($G218,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.45">
@@ -5073,15 +5290,16 @@
       <c r="C219">
         <v>2.7052603409999998</v>
       </c>
-      <c r="D219">
-        <v>0.65</v>
+      <c r="D219" cm="1">
+        <f t="array" ref="D219">_xlfn.SWITCH($G219,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H219" cm="1">
-        <f t="array" ref="H219">_xlfn.SWITCH(G219,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H219">_xlfn.SWITCH($G219,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.45">
@@ -5091,15 +5309,16 @@
       <c r="C220">
         <v>2.7925268029999999</v>
       </c>
-      <c r="D220">
-        <v>0.94</v>
+      <c r="D220" cm="1">
+        <f t="array" ref="D220">_xlfn.SWITCH($G220,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H220" cm="1">
-        <f t="array" ref="H220">_xlfn.SWITCH(G220,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H220">_xlfn.SWITCH($G220,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.45">
@@ -5109,15 +5328,16 @@
       <c r="C221">
         <v>2.8797932660000001</v>
       </c>
-      <c r="D221">
-        <v>0.94</v>
+      <c r="D221" cm="1">
+        <f t="array" ref="D221">_xlfn.SWITCH($G221,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H221" cm="1">
-        <f t="array" ref="H221">_xlfn.SWITCH(G221,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H221">_xlfn.SWITCH($G221,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.45">
@@ -5127,15 +5347,16 @@
       <c r="C222">
         <v>2.9670597280000002</v>
       </c>
-      <c r="D222">
-        <v>0.94</v>
+      <c r="D222" cm="1">
+        <f t="array" ref="D222">_xlfn.SWITCH($G222,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H222" cm="1">
-        <f t="array" ref="H222">_xlfn.SWITCH(G222,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H222">_xlfn.SWITCH($G222,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.45">
@@ -5145,15 +5366,16 @@
       <c r="C223">
         <v>3.0543261909999999</v>
       </c>
-      <c r="D223">
-        <v>0.65</v>
+      <c r="D223" cm="1">
+        <f t="array" ref="D223">_xlfn.SWITCH($G223,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H223" cm="1">
-        <f t="array" ref="H223">_xlfn.SWITCH(G223,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H223">_xlfn.SWITCH($G223,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.45">
@@ -5163,15 +5385,16 @@
       <c r="C224">
         <v>3.1415926540000001</v>
       </c>
-      <c r="D224">
-        <v>0.65</v>
+      <c r="D224" cm="1">
+        <f t="array" ref="D224">_xlfn.SWITCH($G224,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H224" cm="1">
-        <f t="array" ref="H224">_xlfn.SWITCH(G224,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H224">_xlfn.SWITCH($G224,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.45">
@@ -5181,15 +5404,16 @@
       <c r="C225">
         <v>3.2288591160000002</v>
       </c>
-      <c r="D225">
-        <v>7.0000000000000007E-2</v>
+      <c r="D225" cm="1">
+        <f t="array" ref="D225">_xlfn.SWITCH($G225,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H225" cm="1">
-        <f t="array" ref="H225">_xlfn.SWITCH(G225,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H225">_xlfn.SWITCH($G225,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.45">
@@ -5199,15 +5423,16 @@
       <c r="C226">
         <v>3.3161255789999999</v>
       </c>
-      <c r="D226">
-        <v>7.0000000000000007E-2</v>
+      <c r="D226" cm="1">
+        <f t="array" ref="D226">_xlfn.SWITCH($G226,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H226" cm="1">
-        <f t="array" ref="H226">_xlfn.SWITCH(G226,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H226">_xlfn.SWITCH($G226,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.45">
@@ -5217,15 +5442,16 @@
       <c r="C227">
         <v>3.403392041</v>
       </c>
-      <c r="D227">
-        <v>7.0000000000000007E-2</v>
+      <c r="D227" cm="1">
+        <f t="array" ref="D227">_xlfn.SWITCH($G227,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H227" cm="1">
-        <f t="array" ref="H227">_xlfn.SWITCH(G227,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H227">_xlfn.SWITCH($G227,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.45">
@@ -5235,15 +5461,16 @@
       <c r="C228">
         <v>3.4906585040000002</v>
       </c>
-      <c r="D228">
-        <v>7.0000000000000007E-2</v>
+      <c r="D228" cm="1">
+        <f t="array" ref="D228">_xlfn.SWITCH($G228,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H228" cm="1">
-        <f t="array" ref="H228">_xlfn.SWITCH(G228,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H228">_xlfn.SWITCH($G228,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.45">
@@ -5253,15 +5480,16 @@
       <c r="C229">
         <v>3.577924967</v>
       </c>
-      <c r="D229">
-        <v>7.0000000000000007E-2</v>
+      <c r="D229" cm="1">
+        <f t="array" ref="D229">_xlfn.SWITCH($G229,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H229" cm="1">
-        <f t="array" ref="H229">_xlfn.SWITCH(G229,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H229">_xlfn.SWITCH($G229,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.45">
@@ -5271,14 +5499,15 @@
       <c r="C230">
         <v>3.6651914290000001</v>
       </c>
-      <c r="D230">
+      <c r="D230" cm="1">
+        <f t="array" ref="D230">_xlfn.SWITCH($G230,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G230" t="s">
         <v>8</v>
       </c>
       <c r="H230" cm="1">
-        <f t="array" ref="H230">_xlfn.SWITCH(G230,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H230">_xlfn.SWITCH($G230,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5289,14 +5518,15 @@
       <c r="C231">
         <v>4.1887902050000001</v>
       </c>
-      <c r="D231">
+      <c r="D231" cm="1">
+        <f t="array" ref="D231">_xlfn.SWITCH($G231,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G231" t="s">
         <v>8</v>
       </c>
       <c r="H231" cm="1">
-        <f t="array" ref="H231">_xlfn.SWITCH(G231,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H231">_xlfn.SWITCH($G231,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5307,14 +5537,15 @@
       <c r="C232">
         <v>4.7123889800000001</v>
       </c>
-      <c r="D232">
+      <c r="D232" cm="1">
+        <f t="array" ref="D232">_xlfn.SWITCH($G232,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G232" t="s">
         <v>8</v>
       </c>
       <c r="H232" cm="1">
-        <f t="array" ref="H232">_xlfn.SWITCH(G232,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H232">_xlfn.SWITCH($G232,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5325,14 +5556,15 @@
       <c r="C233">
         <v>5.2359877560000001</v>
       </c>
-      <c r="D233">
+      <c r="D233" cm="1">
+        <f t="array" ref="D233">_xlfn.SWITCH($G233,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G233" t="s">
         <v>8</v>
       </c>
       <c r="H233" cm="1">
-        <f t="array" ref="H233">_xlfn.SWITCH(G233,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H233">_xlfn.SWITCH($G233,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5343,14 +5575,15 @@
       <c r="C234">
         <v>5.7595865320000001</v>
       </c>
-      <c r="D234">
+      <c r="D234" cm="1">
+        <f t="array" ref="D234">_xlfn.SWITCH($G234,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G234" t="s">
         <v>8</v>
       </c>
       <c r="H234" cm="1">
-        <f t="array" ref="H234">_xlfn.SWITCH(G234,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H234">_xlfn.SWITCH($G234,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5361,14 +5594,15 @@
       <c r="C235">
         <v>6.2831853070000001</v>
       </c>
-      <c r="D235">
+      <c r="D235" cm="1">
+        <f t="array" ref="D235">_xlfn.SWITCH($G235,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G235" t="s">
         <v>8</v>
       </c>
       <c r="H235" cm="1">
-        <f t="array" ref="H235">_xlfn.SWITCH(G235,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H235">_xlfn.SWITCH($G235,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5379,14 +5613,15 @@
       <c r="C236">
         <v>0</v>
       </c>
-      <c r="D236">
+      <c r="D236" cm="1">
+        <f t="array" ref="D236">_xlfn.SWITCH($G236,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G236" t="s">
         <v>8</v>
       </c>
       <c r="H236" cm="1">
-        <f t="array" ref="H236">_xlfn.SWITCH(G236,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H236">_xlfn.SWITCH($G236,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5397,14 +5632,15 @@
       <c r="C237">
         <v>0.17453292500000001</v>
       </c>
-      <c r="D237">
+      <c r="D237" cm="1">
+        <f t="array" ref="D237">_xlfn.SWITCH($G237,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G237" t="s">
         <v>8</v>
       </c>
       <c r="H237" cm="1">
-        <f t="array" ref="H237">_xlfn.SWITCH(G237,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H237">_xlfn.SWITCH($G237,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5415,14 +5651,15 @@
       <c r="C238">
         <v>0.34906585000000001</v>
       </c>
-      <c r="D238">
+      <c r="D238" cm="1">
+        <f t="array" ref="D238">_xlfn.SWITCH($G238,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G238" t="s">
         <v>8</v>
       </c>
       <c r="H238" cm="1">
-        <f t="array" ref="H238">_xlfn.SWITCH(G238,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H238">_xlfn.SWITCH($G238,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5433,14 +5670,15 @@
       <c r="C239">
         <v>0.52359877600000004</v>
       </c>
-      <c r="D239">
+      <c r="D239" cm="1">
+        <f t="array" ref="D239">_xlfn.SWITCH($G239,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G239" t="s">
         <v>8</v>
       </c>
       <c r="H239" cm="1">
-        <f t="array" ref="H239">_xlfn.SWITCH(G239,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H239">_xlfn.SWITCH($G239,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5451,15 +5689,16 @@
       <c r="C240">
         <v>0.69813170099999999</v>
       </c>
-      <c r="D240">
-        <v>7.0000000000000007E-2</v>
+      <c r="D240" cm="1">
+        <f t="array" ref="D240">_xlfn.SWITCH($G240,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H240" cm="1">
-        <f t="array" ref="H240">_xlfn.SWITCH(G240,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H240">_xlfn.SWITCH($G240,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.45">
@@ -5469,15 +5708,16 @@
       <c r="C241">
         <v>0.87266462600000005</v>
       </c>
-      <c r="D241">
-        <v>7.0000000000000007E-2</v>
+      <c r="D241" cm="1">
+        <f t="array" ref="D241">_xlfn.SWITCH($G241,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G241" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H241" cm="1">
-        <f t="array" ref="H241">_xlfn.SWITCH(G241,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H241">_xlfn.SWITCH($G241,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.45">
@@ -5487,15 +5727,16 @@
       <c r="C242">
         <v>1.047197551</v>
       </c>
-      <c r="D242">
-        <v>7.0000000000000007E-2</v>
+      <c r="D242" cm="1">
+        <f t="array" ref="D242">_xlfn.SWITCH($G242,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G242" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H242" cm="1">
-        <f t="array" ref="H242">_xlfn.SWITCH(G242,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H242">_xlfn.SWITCH($G242,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.45">
@@ -5505,15 +5746,16 @@
       <c r="C243">
         <v>1.2217304760000001</v>
       </c>
-      <c r="D243">
-        <v>0.36</v>
+      <c r="D243" cm="1">
+        <f t="array" ref="D243">_xlfn.SWITCH($G243,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G243" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H243" cm="1">
-        <f t="array" ref="H243">_xlfn.SWITCH(G243,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H243">_xlfn.SWITCH($G243,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.45">
@@ -5523,15 +5765,16 @@
       <c r="C244">
         <v>1.396263402</v>
       </c>
-      <c r="D244">
-        <v>0.36</v>
+      <c r="D244" cm="1">
+        <f t="array" ref="D244">_xlfn.SWITCH($G244,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G244" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H244" cm="1">
-        <f t="array" ref="H244">_xlfn.SWITCH(G244,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H244">_xlfn.SWITCH($G244,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.45">
@@ -5541,15 +5784,16 @@
       <c r="C245">
         <v>1.570796327</v>
       </c>
-      <c r="D245">
-        <v>0.36</v>
+      <c r="D245" cm="1">
+        <f t="array" ref="D245">_xlfn.SWITCH($G245,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H245" cm="1">
-        <f t="array" ref="H245">_xlfn.SWITCH(G245,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H245">_xlfn.SWITCH($G245,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.45">
@@ -5559,15 +5803,16 @@
       <c r="C246">
         <v>1.6580627889999999</v>
       </c>
-      <c r="D246">
-        <v>0.36</v>
+      <c r="D246" cm="1">
+        <f t="array" ref="D246">_xlfn.SWITCH($G246,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G246" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H246" cm="1">
-        <f t="array" ref="H246">_xlfn.SWITCH(G246,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H246">_xlfn.SWITCH($G246,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.45">
@@ -5577,15 +5822,16 @@
       <c r="C247">
         <v>1.7453292520000001</v>
       </c>
-      <c r="D247">
-        <v>0.36</v>
+      <c r="D247" cm="1">
+        <f t="array" ref="D247">_xlfn.SWITCH($G247,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H247" cm="1">
-        <f t="array" ref="H247">_xlfn.SWITCH(G247,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H247">_xlfn.SWITCH($G247,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.45">
@@ -5595,15 +5841,16 @@
       <c r="C248">
         <v>1.8325957150000001</v>
       </c>
-      <c r="D248">
-        <v>0.36</v>
+      <c r="D248" cm="1">
+        <f t="array" ref="D248">_xlfn.SWITCH($G248,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G248" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H248" cm="1">
-        <f t="array" ref="H248">_xlfn.SWITCH(G248,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H248">_xlfn.SWITCH($G248,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.45">
@@ -5613,15 +5860,16 @@
       <c r="C249">
         <v>1.9198621769999999</v>
       </c>
-      <c r="D249">
-        <v>7.0000000000000007E-2</v>
+      <c r="D249" cm="1">
+        <f t="array" ref="D249">_xlfn.SWITCH($G249,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G249" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H249" cm="1">
-        <f t="array" ref="H249">_xlfn.SWITCH(G249,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H249">_xlfn.SWITCH($G249,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.45">
@@ -5631,14 +5879,15 @@
       <c r="C250">
         <v>2.0071286399999999</v>
       </c>
-      <c r="D250">
+      <c r="D250" cm="1">
+        <f t="array" ref="D250">_xlfn.SWITCH($G250,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G250" t="s">
         <v>14</v>
       </c>
       <c r="H250" cm="1">
-        <f t="array" ref="H250">_xlfn.SWITCH(G250,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H250">_xlfn.SWITCH($G250,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5649,14 +5898,15 @@
       <c r="C251">
         <v>2.094395102</v>
       </c>
-      <c r="D251">
+      <c r="D251" cm="1">
+        <f t="array" ref="D251">_xlfn.SWITCH($G251,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G251" t="s">
         <v>14</v>
       </c>
       <c r="H251" cm="1">
-        <f t="array" ref="H251">_xlfn.SWITCH(G251,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H251">_xlfn.SWITCH($G251,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5667,14 +5917,15 @@
       <c r="C252">
         <v>2.1816615650000002</v>
       </c>
-      <c r="D252">
+      <c r="D252" cm="1">
+        <f t="array" ref="D252">_xlfn.SWITCH($G252,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G252" t="s">
         <v>14</v>
       </c>
       <c r="H252" cm="1">
-        <f t="array" ref="H252">_xlfn.SWITCH(G252,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H252">_xlfn.SWITCH($G252,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5685,15 +5936,16 @@
       <c r="C253">
         <v>2.2689280279999999</v>
       </c>
-      <c r="D253">
-        <v>0</v>
+      <c r="D253" cm="1">
+        <f t="array" ref="D253">_xlfn.SWITCH($G253,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.36</v>
       </c>
       <c r="G253" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H253" cm="1">
-        <f t="array" ref="H253">_xlfn.SWITCH(G253,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0</v>
+        <f t="array" ref="H253">_xlfn.SWITCH($G253,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.45">
@@ -5703,15 +5955,16 @@
       <c r="C254">
         <v>2.35619449</v>
       </c>
-      <c r="D254">
-        <v>0</v>
+      <c r="D254" cm="1">
+        <f t="array" ref="D254">_xlfn.SWITCH($G254,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.36</v>
       </c>
       <c r="G254" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H254" cm="1">
-        <f t="array" ref="H254">_xlfn.SWITCH(G254,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0</v>
+        <f t="array" ref="H254">_xlfn.SWITCH($G254,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.45">
@@ -5721,15 +5974,16 @@
       <c r="C255">
         <v>2.4434609530000002</v>
       </c>
-      <c r="D255">
-        <v>0</v>
+      <c r="D255" cm="1">
+        <f t="array" ref="D255">_xlfn.SWITCH($G255,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.36</v>
       </c>
       <c r="G255" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H255" cm="1">
-        <f t="array" ref="H255">_xlfn.SWITCH(G255,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0</v>
+        <f t="array" ref="H255">_xlfn.SWITCH($G255,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.45">
@@ -5739,15 +5993,16 @@
       <c r="C256">
         <v>2.5307274149999999</v>
       </c>
-      <c r="D256">
-        <v>0</v>
+      <c r="D256" cm="1">
+        <f t="array" ref="D256">_xlfn.SWITCH($G256,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G256" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H256" cm="1">
-        <f t="array" ref="H256">_xlfn.SWITCH(G256,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0</v>
+        <f t="array" ref="H256">_xlfn.SWITCH($G256,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.45">
@@ -5757,15 +6012,16 @@
       <c r="C257">
         <v>2.6179938780000001</v>
       </c>
-      <c r="D257">
-        <v>0.36</v>
+      <c r="D257" cm="1">
+        <f t="array" ref="D257">_xlfn.SWITCH($G257,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H257" cm="1">
-        <f t="array" ref="H257">_xlfn.SWITCH(G257,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H257">_xlfn.SWITCH($G257,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.45">
@@ -5775,15 +6031,16 @@
       <c r="C258">
         <v>2.7052603409999998</v>
       </c>
-      <c r="D258">
-        <v>0.94</v>
+      <c r="D258" cm="1">
+        <f t="array" ref="D258">_xlfn.SWITCH($G258,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H258" cm="1">
-        <f t="array" ref="H258">_xlfn.SWITCH(G258,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H258">_xlfn.SWITCH($G258,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.45">
@@ -5793,15 +6050,16 @@
       <c r="C259">
         <v>2.7925268029999999</v>
       </c>
-      <c r="D259">
-        <v>1.22</v>
+      <c r="D259" cm="1">
+        <f t="array" ref="D259">_xlfn.SWITCH($G259,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H259" cm="1">
-        <f t="array" ref="H259">_xlfn.SWITCH(G259,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H259">_xlfn.SWITCH($G259,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.45">
@@ -5811,15 +6069,16 @@
       <c r="C260">
         <v>2.8797932660000001</v>
       </c>
-      <c r="D260">
-        <v>1.51</v>
+      <c r="D260" cm="1">
+        <f t="array" ref="D260">_xlfn.SWITCH($G260,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H260" cm="1">
-        <f t="array" ref="H260">_xlfn.SWITCH(G260,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.51</v>
+        <f t="array" ref="H260">_xlfn.SWITCH($G260,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.45">
@@ -5829,15 +6088,16 @@
       <c r="C261">
         <v>2.9670597280000002</v>
       </c>
-      <c r="D261">
-        <v>1.8009999999999999</v>
+      <c r="D261" cm="1">
+        <f t="array" ref="D261">_xlfn.SWITCH($G261,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H261" cm="1">
-        <f t="array" ref="H261">_xlfn.SWITCH(G261,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.8009999999999999</v>
+        <f t="array" ref="H261">_xlfn.SWITCH($G261,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.45">
@@ -5847,15 +6107,16 @@
       <c r="C262">
         <v>3.0543261909999999</v>
       </c>
-      <c r="D262">
-        <v>1.8009999999999999</v>
+      <c r="D262" cm="1">
+        <f t="array" ref="D262">_xlfn.SWITCH($G262,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H262" cm="1">
-        <f t="array" ref="H262">_xlfn.SWITCH(G262,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.8009999999999999</v>
+        <f t="array" ref="H262">_xlfn.SWITCH($G262,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.45">
@@ -5865,15 +6126,16 @@
       <c r="C263">
         <v>3.1415926540000001</v>
       </c>
-      <c r="D263">
-        <v>1.51</v>
+      <c r="D263" cm="1">
+        <f t="array" ref="D263">_xlfn.SWITCH($G263,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H263" cm="1">
-        <f t="array" ref="H263">_xlfn.SWITCH(G263,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.51</v>
+        <f t="array" ref="H263">_xlfn.SWITCH($G263,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.45">
@@ -5883,15 +6145,16 @@
       <c r="C264">
         <v>3.2288591160000002</v>
       </c>
-      <c r="D264">
-        <v>1.22</v>
+      <c r="D264" cm="1">
+        <f t="array" ref="D264">_xlfn.SWITCH($G264,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G264" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H264" cm="1">
-        <f t="array" ref="H264">_xlfn.SWITCH(G264,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H264">_xlfn.SWITCH($G264,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.45">
@@ -5901,15 +6164,16 @@
       <c r="C265">
         <v>3.3161255789999999</v>
       </c>
-      <c r="D265">
-        <v>0.94</v>
+      <c r="D265" cm="1">
+        <f t="array" ref="D265">_xlfn.SWITCH($G265,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H265" cm="1">
-        <f t="array" ref="H265">_xlfn.SWITCH(G265,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H265">_xlfn.SWITCH($G265,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.45">
@@ -5919,15 +6183,16 @@
       <c r="C266">
         <v>3.403392041</v>
       </c>
-      <c r="D266">
-        <v>0.36</v>
+      <c r="D266" cm="1">
+        <f t="array" ref="D266">_xlfn.SWITCH($G266,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H266" cm="1">
-        <f t="array" ref="H266">_xlfn.SWITCH(G266,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H266">_xlfn.SWITCH($G266,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.45">
@@ -5937,15 +6202,16 @@
       <c r="C267">
         <v>3.4906585040000002</v>
       </c>
-      <c r="D267">
-        <v>0.36</v>
+      <c r="D267" cm="1">
+        <f t="array" ref="D267">_xlfn.SWITCH($G267,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H267" cm="1">
-        <f t="array" ref="H267">_xlfn.SWITCH(G267,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H267">_xlfn.SWITCH($G267,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.45">
@@ -5955,15 +6221,16 @@
       <c r="C268">
         <v>3.577924967</v>
       </c>
-      <c r="D268">
-        <v>7.0000000000000007E-2</v>
+      <c r="D268" cm="1">
+        <f t="array" ref="D268">_xlfn.SWITCH($G268,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H268" cm="1">
-        <f t="array" ref="H268">_xlfn.SWITCH(G268,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H268">_xlfn.SWITCH($G268,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.45">
@@ -5973,15 +6240,16 @@
       <c r="C269">
         <v>3.6651914290000001</v>
       </c>
-      <c r="D269">
-        <v>7.0000000000000007E-2</v>
+      <c r="D269" cm="1">
+        <f t="array" ref="D269">_xlfn.SWITCH($G269,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H269" cm="1">
-        <f t="array" ref="H269">_xlfn.SWITCH(G269,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H269">_xlfn.SWITCH($G269,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.45">
@@ -5991,14 +6259,15 @@
       <c r="C270">
         <v>4.1887902050000001</v>
       </c>
-      <c r="D270">
+      <c r="D270" cm="1">
+        <f t="array" ref="D270">_xlfn.SWITCH($G270,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G270" t="s">
         <v>8</v>
       </c>
       <c r="H270" cm="1">
-        <f t="array" ref="H270">_xlfn.SWITCH(G270,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H270">_xlfn.SWITCH($G270,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6009,14 +6278,15 @@
       <c r="C271">
         <v>4.7123889800000001</v>
       </c>
-      <c r="D271">
+      <c r="D271" cm="1">
+        <f t="array" ref="D271">_xlfn.SWITCH($G271,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G271" t="s">
         <v>8</v>
       </c>
       <c r="H271" cm="1">
-        <f t="array" ref="H271">_xlfn.SWITCH(G271,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H271">_xlfn.SWITCH($G271,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6027,14 +6297,15 @@
       <c r="C272">
         <v>5.2359877560000001</v>
       </c>
-      <c r="D272">
+      <c r="D272" cm="1">
+        <f t="array" ref="D272">_xlfn.SWITCH($G272,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G272" t="s">
         <v>8</v>
       </c>
       <c r="H272" cm="1">
-        <f t="array" ref="H272">_xlfn.SWITCH(G272,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H272">_xlfn.SWITCH($G272,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6045,14 +6316,15 @@
       <c r="C273">
         <v>5.7595865320000001</v>
       </c>
-      <c r="D273">
+      <c r="D273" cm="1">
+        <f t="array" ref="D273">_xlfn.SWITCH($G273,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G273" t="s">
         <v>8</v>
       </c>
       <c r="H273" cm="1">
-        <f t="array" ref="H273">_xlfn.SWITCH(G273,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H273">_xlfn.SWITCH($G273,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6063,14 +6335,15 @@
       <c r="C274">
         <v>6.2831853070000001</v>
       </c>
-      <c r="D274">
+      <c r="D274" cm="1">
+        <f t="array" ref="D274">_xlfn.SWITCH($G274,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G274" t="s">
         <v>8</v>
       </c>
       <c r="H274" cm="1">
-        <f t="array" ref="H274">_xlfn.SWITCH(G274,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H274">_xlfn.SWITCH($G274,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6081,14 +6354,15 @@
       <c r="C275">
         <v>0</v>
       </c>
-      <c r="D275">
+      <c r="D275" cm="1">
+        <f t="array" ref="D275">_xlfn.SWITCH($G275,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G275" t="s">
         <v>8</v>
       </c>
       <c r="H275" cm="1">
-        <f t="array" ref="H275">_xlfn.SWITCH(G275,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H275">_xlfn.SWITCH($G275,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6099,14 +6373,15 @@
       <c r="C276">
         <v>0.17453292500000001</v>
       </c>
-      <c r="D276">
+      <c r="D276" cm="1">
+        <f t="array" ref="D276">_xlfn.SWITCH($G276,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G276" t="s">
         <v>8</v>
       </c>
       <c r="H276" cm="1">
-        <f t="array" ref="H276">_xlfn.SWITCH(G276,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H276">_xlfn.SWITCH($G276,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6117,14 +6392,15 @@
       <c r="C277">
         <v>0.34906585000000001</v>
       </c>
-      <c r="D277">
+      <c r="D277" cm="1">
+        <f t="array" ref="D277">_xlfn.SWITCH($G277,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G277" t="s">
         <v>8</v>
       </c>
       <c r="H277" cm="1">
-        <f t="array" ref="H277">_xlfn.SWITCH(G277,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H277">_xlfn.SWITCH($G277,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6135,14 +6411,15 @@
       <c r="C278">
         <v>0.52359877600000004</v>
       </c>
-      <c r="D278">
+      <c r="D278" cm="1">
+        <f t="array" ref="D278">_xlfn.SWITCH($G278,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G278" t="s">
         <v>8</v>
       </c>
       <c r="H278" cm="1">
-        <f t="array" ref="H278">_xlfn.SWITCH(G278,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H278">_xlfn.SWITCH($G278,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6153,15 +6430,16 @@
       <c r="C279">
         <v>0.69813170099999999</v>
       </c>
-      <c r="D279">
-        <v>7.0000000000000007E-2</v>
+      <c r="D279" cm="1">
+        <f t="array" ref="D279">_xlfn.SWITCH($G279,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H279" cm="1">
-        <f t="array" ref="H279">_xlfn.SWITCH(G279,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H279">_xlfn.SWITCH($G279,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.45">
@@ -6171,15 +6449,16 @@
       <c r="C280">
         <v>0.87266462600000005</v>
       </c>
-      <c r="D280">
-        <v>0.36</v>
+      <c r="D280" cm="1">
+        <f t="array" ref="D280">_xlfn.SWITCH($G280,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G280" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H280" cm="1">
-        <f t="array" ref="H280">_xlfn.SWITCH(G280,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H280">_xlfn.SWITCH($G280,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.45">
@@ -6189,15 +6468,16 @@
       <c r="C281">
         <v>1.047197551</v>
       </c>
-      <c r="D281">
-        <v>0.65</v>
+      <c r="D281" cm="1">
+        <f t="array" ref="D281">_xlfn.SWITCH($G281,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G281" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H281" cm="1">
-        <f t="array" ref="H281">_xlfn.SWITCH(G281,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H281">_xlfn.SWITCH($G281,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.45">
@@ -6207,15 +6487,16 @@
       <c r="C282">
         <v>1.2217304760000001</v>
       </c>
-      <c r="D282">
-        <v>0.65</v>
+      <c r="D282" cm="1">
+        <f t="array" ref="D282">_xlfn.SWITCH($G282,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G282" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H282" cm="1">
-        <f t="array" ref="H282">_xlfn.SWITCH(G282,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H282">_xlfn.SWITCH($G282,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.45">
@@ -6225,15 +6506,16 @@
       <c r="C283">
         <v>1.396263402</v>
       </c>
-      <c r="D283">
-        <v>0.94</v>
+      <c r="D283" cm="1">
+        <f t="array" ref="D283">_xlfn.SWITCH($G283,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H283" cm="1">
-        <f t="array" ref="H283">_xlfn.SWITCH(G283,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H283">_xlfn.SWITCH($G283,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.45">
@@ -6243,15 +6525,16 @@
       <c r="C284">
         <v>1.570796327</v>
       </c>
-      <c r="D284">
-        <v>0.94</v>
+      <c r="D284" cm="1">
+        <f t="array" ref="D284">_xlfn.SWITCH($G284,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G284" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H284" cm="1">
-        <f t="array" ref="H284">_xlfn.SWITCH(G284,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H284">_xlfn.SWITCH($G284,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.45">
@@ -6261,15 +6544,16 @@
       <c r="C285">
         <v>1.6580627889999999</v>
       </c>
-      <c r="D285">
-        <v>0.94</v>
+      <c r="D285" cm="1">
+        <f t="array" ref="D285">_xlfn.SWITCH($G285,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G285" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H285" cm="1">
-        <f t="array" ref="H285">_xlfn.SWITCH(G285,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H285">_xlfn.SWITCH($G285,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.45">
@@ -6279,15 +6563,16 @@
       <c r="C286">
         <v>1.7453292520000001</v>
       </c>
-      <c r="D286">
-        <v>0.94</v>
+      <c r="D286" cm="1">
+        <f t="array" ref="D286">_xlfn.SWITCH($G286,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G286" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H286" cm="1">
-        <f t="array" ref="H286">_xlfn.SWITCH(G286,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H286">_xlfn.SWITCH($G286,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.45">
@@ -6297,15 +6582,16 @@
       <c r="C287">
         <v>1.8325957150000001</v>
       </c>
-      <c r="D287">
-        <v>0.94</v>
+      <c r="D287" cm="1">
+        <f t="array" ref="D287">_xlfn.SWITCH($G287,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G287" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H287" cm="1">
-        <f t="array" ref="H287">_xlfn.SWITCH(G287,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H287">_xlfn.SWITCH($G287,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.45">
@@ -6315,15 +6601,16 @@
       <c r="C288">
         <v>1.9198621769999999</v>
       </c>
-      <c r="D288">
-        <v>0.36</v>
+      <c r="D288" cm="1">
+        <f t="array" ref="D288">_xlfn.SWITCH($G288,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G288" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H288" cm="1">
-        <f t="array" ref="H288">_xlfn.SWITCH(G288,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H288">_xlfn.SWITCH($G288,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.45">
@@ -6333,15 +6620,16 @@
       <c r="C289">
         <v>2.0071286399999999</v>
       </c>
-      <c r="D289">
-        <v>0.36</v>
+      <c r="D289" cm="1">
+        <f t="array" ref="D289">_xlfn.SWITCH($G289,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G289" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H289" cm="1">
-        <f t="array" ref="H289">_xlfn.SWITCH(G289,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H289">_xlfn.SWITCH($G289,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.45">
@@ -6351,14 +6639,15 @@
       <c r="C290">
         <v>2.094395102</v>
       </c>
-      <c r="D290">
+      <c r="D290" cm="1">
+        <f t="array" ref="D290">_xlfn.SWITCH($G290,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G290" t="s">
         <v>14</v>
       </c>
       <c r="H290" cm="1">
-        <f t="array" ref="H290">_xlfn.SWITCH(G290,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H290">_xlfn.SWITCH($G290,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -6369,15 +6658,16 @@
       <c r="C291">
         <v>2.1816615650000002</v>
       </c>
-      <c r="D291">
-        <v>7.0000000000000007E-2</v>
+      <c r="D291" cm="1">
+        <f t="array" ref="D291">_xlfn.SWITCH($G291,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.36</v>
       </c>
       <c r="G291" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H291" cm="1">
-        <f t="array" ref="H291">_xlfn.SWITCH(G291,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H291">_xlfn.SWITCH($G291,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.45">
@@ -6387,15 +6677,16 @@
       <c r="C292">
         <v>2.2689280279999999</v>
       </c>
-      <c r="D292">
-        <v>0</v>
+      <c r="D292" cm="1">
+        <f t="array" ref="D292">_xlfn.SWITCH($G292,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.65</v>
       </c>
       <c r="G292" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H292" cm="1">
-        <f t="array" ref="H292">_xlfn.SWITCH(G292,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0</v>
+        <f t="array" ref="H292">_xlfn.SWITCH($G292,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.65</v>
       </c>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.45">
@@ -6405,15 +6696,16 @@
       <c r="C293">
         <v>2.35619449</v>
       </c>
-      <c r="D293">
-        <v>0</v>
+      <c r="D293" cm="1">
+        <f t="array" ref="D293">_xlfn.SWITCH($G293,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.94</v>
       </c>
       <c r="G293" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H293" cm="1">
-        <f t="array" ref="H293">_xlfn.SWITCH(G293,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0</v>
+        <f t="array" ref="H293">_xlfn.SWITCH($G293,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.94</v>
       </c>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.45">
@@ -6423,15 +6715,16 @@
       <c r="C294">
         <v>2.4434609530000002</v>
       </c>
-      <c r="D294">
-        <v>0</v>
+      <c r="D294" cm="1">
+        <f t="array" ref="D294">_xlfn.SWITCH($G294,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.65</v>
       </c>
       <c r="G294" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H294" cm="1">
-        <f t="array" ref="H294">_xlfn.SWITCH(G294,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0</v>
+        <f t="array" ref="H294">_xlfn.SWITCH($G294,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.65</v>
       </c>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.45">
@@ -6441,15 +6734,16 @@
       <c r="C295">
         <v>2.5307274149999999</v>
       </c>
-      <c r="D295">
-        <v>0</v>
+      <c r="D295" cm="1">
+        <f t="array" ref="D295">_xlfn.SWITCH($G295,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.36</v>
       </c>
       <c r="G295" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H295" cm="1">
-        <f t="array" ref="H295">_xlfn.SWITCH(G295,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0</v>
+        <f t="array" ref="H295">_xlfn.SWITCH($G295,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.45">
@@ -6459,15 +6753,16 @@
       <c r="C296">
         <v>2.6179938780000001</v>
       </c>
-      <c r="D296">
-        <v>0.65</v>
+      <c r="D296" cm="1">
+        <f t="array" ref="D296">_xlfn.SWITCH($G296,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G296" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H296" cm="1">
-        <f t="array" ref="H296">_xlfn.SWITCH(G296,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H296">_xlfn.SWITCH($G296,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.45">
@@ -6477,15 +6772,16 @@
       <c r="C297">
         <v>2.7052603409999998</v>
       </c>
-      <c r="D297">
-        <v>0.94</v>
+      <c r="D297" cm="1">
+        <f t="array" ref="D297">_xlfn.SWITCH($G297,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G297" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H297" cm="1">
-        <f t="array" ref="H297">_xlfn.SWITCH(G297,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H297">_xlfn.SWITCH($G297,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.45">
@@ -6495,15 +6791,16 @@
       <c r="C298">
         <v>2.7925268029999999</v>
       </c>
-      <c r="D298">
-        <v>1.51</v>
+      <c r="D298" cm="1">
+        <f t="array" ref="D298">_xlfn.SWITCH($G298,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G298" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H298" cm="1">
-        <f t="array" ref="H298">_xlfn.SWITCH(G298,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.51</v>
+        <f t="array" ref="H298">_xlfn.SWITCH($G298,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.45">
@@ -6513,15 +6810,16 @@
       <c r="C299">
         <v>2.8797932660000001</v>
       </c>
-      <c r="D299">
-        <v>1.8009999999999999</v>
+      <c r="D299" cm="1">
+        <f t="array" ref="D299">_xlfn.SWITCH($G299,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G299" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H299" cm="1">
-        <f t="array" ref="H299">_xlfn.SWITCH(G299,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.8009999999999999</v>
+        <f t="array" ref="H299">_xlfn.SWITCH($G299,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.45">
@@ -6531,15 +6829,16 @@
       <c r="C300">
         <v>2.9670597280000002</v>
       </c>
-      <c r="D300">
-        <v>1.8009999999999999</v>
+      <c r="D300" cm="1">
+        <f t="array" ref="D300">_xlfn.SWITCH($G300,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G300" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H300" cm="1">
-        <f t="array" ref="H300">_xlfn.SWITCH(G300,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.8009999999999999</v>
+        <f t="array" ref="H300">_xlfn.SWITCH($G300,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.45">
@@ -6549,15 +6848,16 @@
       <c r="C301">
         <v>3.0543261909999999</v>
       </c>
-      <c r="D301">
-        <v>1.8009999999999999</v>
+      <c r="D301" cm="1">
+        <f t="array" ref="D301">_xlfn.SWITCH($G301,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G301" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H301" cm="1">
-        <f t="array" ref="H301">_xlfn.SWITCH(G301,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.8009999999999999</v>
+        <f t="array" ref="H301">_xlfn.SWITCH($G301,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.45">
@@ -6567,15 +6867,16 @@
       <c r="C302">
         <v>3.1415926540000001</v>
       </c>
-      <c r="D302">
-        <v>1.8009999999999999</v>
+      <c r="D302" cm="1">
+        <f t="array" ref="D302">_xlfn.SWITCH($G302,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H302" cm="1">
-        <f t="array" ref="H302">_xlfn.SWITCH(G302,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.8009999999999999</v>
+        <f t="array" ref="H302">_xlfn.SWITCH($G302,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.45">
@@ -6585,15 +6886,16 @@
       <c r="C303">
         <v>3.2288591160000002</v>
       </c>
-      <c r="D303">
-        <v>1.51</v>
+      <c r="D303" cm="1">
+        <f t="array" ref="D303">_xlfn.SWITCH($G303,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G303" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H303" cm="1">
-        <f t="array" ref="H303">_xlfn.SWITCH(G303,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.51</v>
+        <f t="array" ref="H303">_xlfn.SWITCH($G303,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.45">
@@ -6603,15 +6905,16 @@
       <c r="C304">
         <v>3.3161255789999999</v>
       </c>
-      <c r="D304">
-        <v>0.94</v>
+      <c r="D304" cm="1">
+        <f t="array" ref="D304">_xlfn.SWITCH($G304,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H304" cm="1">
-        <f t="array" ref="H304">_xlfn.SWITCH(G304,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H304">_xlfn.SWITCH($G304,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.45">
@@ -6621,15 +6924,16 @@
       <c r="C305">
         <v>3.403392041</v>
       </c>
-      <c r="D305">
-        <v>0.65</v>
+      <c r="D305" cm="1">
+        <f t="array" ref="D305">_xlfn.SWITCH($G305,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H305" cm="1">
-        <f t="array" ref="H305">_xlfn.SWITCH(G305,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H305">_xlfn.SWITCH($G305,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.45">
@@ -6639,15 +6943,16 @@
       <c r="C306">
         <v>3.4906585040000002</v>
       </c>
-      <c r="D306">
-        <v>0.36</v>
+      <c r="D306" cm="1">
+        <f t="array" ref="D306">_xlfn.SWITCH($G306,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G306" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H306" cm="1">
-        <f t="array" ref="H306">_xlfn.SWITCH(G306,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H306">_xlfn.SWITCH($G306,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.45">
@@ -6657,15 +6962,16 @@
       <c r="C307">
         <v>3.577924967</v>
       </c>
-      <c r="D307">
-        <v>7.0000000000000007E-2</v>
+      <c r="D307" cm="1">
+        <f t="array" ref="D307">_xlfn.SWITCH($G307,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G307" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H307" cm="1">
-        <f t="array" ref="H307">_xlfn.SWITCH(G307,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H307">_xlfn.SWITCH($G307,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.45">
@@ -6675,15 +6981,16 @@
       <c r="C308">
         <v>3.6651914290000001</v>
       </c>
-      <c r="D308">
-        <v>7.0000000000000007E-2</v>
+      <c r="D308" cm="1">
+        <f t="array" ref="D308">_xlfn.SWITCH($G308,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G308" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H308" cm="1">
-        <f t="array" ref="H308">_xlfn.SWITCH(G308,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H308">_xlfn.SWITCH($G308,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.45">
@@ -6693,14 +7000,15 @@
       <c r="C309">
         <v>4.1887902050000001</v>
       </c>
-      <c r="D309">
+      <c r="D309" cm="1">
+        <f t="array" ref="D309">_xlfn.SWITCH($G309,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G309" t="s">
         <v>8</v>
       </c>
       <c r="H309" cm="1">
-        <f t="array" ref="H309">_xlfn.SWITCH(G309,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H309">_xlfn.SWITCH($G309,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6711,14 +7019,15 @@
       <c r="C310">
         <v>4.7123889800000001</v>
       </c>
-      <c r="D310">
+      <c r="D310" cm="1">
+        <f t="array" ref="D310">_xlfn.SWITCH($G310,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G310" t="s">
         <v>8</v>
       </c>
       <c r="H310" cm="1">
-        <f t="array" ref="H310">_xlfn.SWITCH(G310,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H310">_xlfn.SWITCH($G310,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6729,14 +7038,15 @@
       <c r="C311">
         <v>5.2359877560000001</v>
       </c>
-      <c r="D311">
+      <c r="D311" cm="1">
+        <f t="array" ref="D311">_xlfn.SWITCH($G311,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G311" t="s">
         <v>8</v>
       </c>
       <c r="H311" cm="1">
-        <f t="array" ref="H311">_xlfn.SWITCH(G311,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H311">_xlfn.SWITCH($G311,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6747,14 +7057,15 @@
       <c r="C312">
         <v>5.7595865320000001</v>
       </c>
-      <c r="D312">
+      <c r="D312" cm="1">
+        <f t="array" ref="D312">_xlfn.SWITCH($G312,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G312" t="s">
         <v>8</v>
       </c>
       <c r="H312" cm="1">
-        <f t="array" ref="H312">_xlfn.SWITCH(G312,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H312">_xlfn.SWITCH($G312,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6765,14 +7076,15 @@
       <c r="C313">
         <v>6.2831853070000001</v>
       </c>
-      <c r="D313">
+      <c r="D313" cm="1">
+        <f t="array" ref="D313">_xlfn.SWITCH($G313,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G313" t="s">
         <v>8</v>
       </c>
       <c r="H313" cm="1">
-        <f t="array" ref="H313">_xlfn.SWITCH(G313,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H313">_xlfn.SWITCH($G313,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6783,14 +7095,15 @@
       <c r="C314">
         <v>0</v>
       </c>
-      <c r="D314">
+      <c r="D314" cm="1">
+        <f t="array" ref="D314">_xlfn.SWITCH($G314,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G314" t="s">
         <v>8</v>
       </c>
       <c r="H314" cm="1">
-        <f t="array" ref="H314">_xlfn.SWITCH(G314,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H314">_xlfn.SWITCH($G314,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6801,14 +7114,15 @@
       <c r="C315">
         <v>0.17453292500000001</v>
       </c>
-      <c r="D315">
+      <c r="D315" cm="1">
+        <f t="array" ref="D315">_xlfn.SWITCH($G315,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G315" t="s">
         <v>8</v>
       </c>
       <c r="H315" cm="1">
-        <f t="array" ref="H315">_xlfn.SWITCH(G315,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H315">_xlfn.SWITCH($G315,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6819,14 +7133,15 @@
       <c r="C316">
         <v>0.34906585000000001</v>
       </c>
-      <c r="D316">
+      <c r="D316" cm="1">
+        <f t="array" ref="D316">_xlfn.SWITCH($G316,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G316" t="s">
         <v>8</v>
       </c>
       <c r="H316" cm="1">
-        <f t="array" ref="H316">_xlfn.SWITCH(G316,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H316">_xlfn.SWITCH($G316,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6837,15 +7152,16 @@
       <c r="C317">
         <v>0.52359877600000004</v>
       </c>
-      <c r="D317">
-        <v>7.0000000000000007E-2</v>
+      <c r="D317" cm="1">
+        <f t="array" ref="D317">_xlfn.SWITCH($G317,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G317" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H317" cm="1">
-        <f t="array" ref="H317">_xlfn.SWITCH(G317,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H317">_xlfn.SWITCH($G317,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.45">
@@ -6855,15 +7171,16 @@
       <c r="C318">
         <v>0.69813170099999999</v>
       </c>
-      <c r="D318">
-        <v>0.65</v>
+      <c r="D318" cm="1">
+        <f t="array" ref="D318">_xlfn.SWITCH($G318,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G318" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H318" cm="1">
-        <f t="array" ref="H318">_xlfn.SWITCH(G318,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H318">_xlfn.SWITCH($G318,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.45">
@@ -6873,15 +7190,16 @@
       <c r="C319">
         <v>0.87266462600000005</v>
       </c>
-      <c r="D319">
-        <v>0.94</v>
+      <c r="D319" cm="1">
+        <f t="array" ref="D319">_xlfn.SWITCH($G319,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G319" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H319" cm="1">
-        <f t="array" ref="H319">_xlfn.SWITCH(G319,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H319">_xlfn.SWITCH($G319,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.45">
@@ -6891,15 +7209,16 @@
       <c r="C320">
         <v>1.047197551</v>
       </c>
-      <c r="D320">
-        <v>1.22</v>
+      <c r="D320" cm="1">
+        <f t="array" ref="D320">_xlfn.SWITCH($G320,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G320" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H320" cm="1">
-        <f t="array" ref="H320">_xlfn.SWITCH(G320,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H320">_xlfn.SWITCH($G320,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.45">
@@ -6909,15 +7228,16 @@
       <c r="C321">
         <v>1.2217304760000001</v>
       </c>
-      <c r="D321">
-        <v>1.22</v>
+      <c r="D321" cm="1">
+        <f t="array" ref="D321">_xlfn.SWITCH($G321,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G321" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H321" cm="1">
-        <f t="array" ref="H321">_xlfn.SWITCH(G321,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H321">_xlfn.SWITCH($G321,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.45">
@@ -6927,15 +7247,16 @@
       <c r="C322">
         <v>1.396263402</v>
       </c>
-      <c r="D322">
-        <v>1.22</v>
+      <c r="D322" cm="1">
+        <f t="array" ref="D322">_xlfn.SWITCH($G322,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G322" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H322" cm="1">
-        <f t="array" ref="H322">_xlfn.SWITCH(G322,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H322">_xlfn.SWITCH($G322,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.45">
@@ -6945,15 +7266,16 @@
       <c r="C323">
         <v>1.570796327</v>
       </c>
-      <c r="D323">
-        <v>1.22</v>
+      <c r="D323" cm="1">
+        <f t="array" ref="D323">_xlfn.SWITCH($G323,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G323" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H323" cm="1">
-        <f t="array" ref="H323">_xlfn.SWITCH(G323,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H323">_xlfn.SWITCH($G323,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.45">
@@ -6963,15 +7285,16 @@
       <c r="C324">
         <v>1.6580627889999999</v>
       </c>
-      <c r="D324">
-        <v>1.22</v>
+      <c r="D324" cm="1">
+        <f t="array" ref="D324">_xlfn.SWITCH($G324,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G324" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H324" cm="1">
-        <f t="array" ref="H324">_xlfn.SWITCH(G324,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H324">_xlfn.SWITCH($G324,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.45">
@@ -6981,15 +7304,16 @@
       <c r="C325">
         <v>1.7453292520000001</v>
       </c>
-      <c r="D325">
-        <v>1.22</v>
+      <c r="D325" cm="1">
+        <f t="array" ref="D325">_xlfn.SWITCH($G325,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G325" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H325" cm="1">
-        <f t="array" ref="H325">_xlfn.SWITCH(G325,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H325">_xlfn.SWITCH($G325,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.45">
@@ -6999,15 +7323,16 @@
       <c r="C326">
         <v>1.8325957150000001</v>
       </c>
-      <c r="D326">
-        <v>1.22</v>
+      <c r="D326" cm="1">
+        <f t="array" ref="D326">_xlfn.SWITCH($G326,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G326" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H326" cm="1">
-        <f t="array" ref="H326">_xlfn.SWITCH(G326,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H326">_xlfn.SWITCH($G326,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.45">
@@ -7017,15 +7342,16 @@
       <c r="C327">
         <v>1.9198621769999999</v>
       </c>
-      <c r="D327">
-        <v>0.94</v>
+      <c r="D327" cm="1">
+        <f t="array" ref="D327">_xlfn.SWITCH($G327,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G327" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H327" cm="1">
-        <f t="array" ref="H327">_xlfn.SWITCH(G327,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H327">_xlfn.SWITCH($G327,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.45">
@@ -7035,15 +7361,16 @@
       <c r="C328">
         <v>2.0071286399999999</v>
       </c>
-      <c r="D328">
-        <v>0.94</v>
+      <c r="D328" cm="1">
+        <f t="array" ref="D328">_xlfn.SWITCH($G328,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G328" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H328" cm="1">
-        <f t="array" ref="H328">_xlfn.SWITCH(G328,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H328">_xlfn.SWITCH($G328,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.45">
@@ -7053,14 +7380,15 @@
       <c r="C329">
         <v>2.094395102</v>
       </c>
-      <c r="D329">
+      <c r="D329" cm="1">
+        <f t="array" ref="D329">_xlfn.SWITCH($G329,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0.36</v>
       </c>
       <c r="G329" t="s">
         <v>13</v>
       </c>
       <c r="H329" cm="1">
-        <f t="array" ref="H329">_xlfn.SWITCH(G329,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H329">_xlfn.SWITCH($G329,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0.36</v>
       </c>
     </row>
@@ -7071,14 +7399,15 @@
       <c r="C330">
         <v>2.1816615650000002</v>
       </c>
-      <c r="D330">
+      <c r="D330" cm="1">
+        <f t="array" ref="D330">_xlfn.SWITCH($G330,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0.36</v>
       </c>
       <c r="G330" t="s">
         <v>13</v>
       </c>
       <c r="H330" cm="1">
-        <f t="array" ref="H330">_xlfn.SWITCH(G330,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H330">_xlfn.SWITCH($G330,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0.36</v>
       </c>
     </row>
@@ -7089,15 +7418,16 @@
       <c r="C331">
         <v>2.2689280279999999</v>
       </c>
-      <c r="D331">
-        <v>0.36</v>
+      <c r="D331" cm="1">
+        <f t="array" ref="D331">_xlfn.SWITCH($G331,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.65</v>
       </c>
       <c r="G331" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H331" cm="1">
-        <f t="array" ref="H331">_xlfn.SWITCH(G331,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H331">_xlfn.SWITCH($G331,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.65</v>
       </c>
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.45">
@@ -7107,15 +7437,16 @@
       <c r="C332">
         <v>2.35619449</v>
       </c>
-      <c r="D332">
-        <v>7.0000000000000007E-2</v>
+      <c r="D332" cm="1">
+        <f t="array" ref="D332">_xlfn.SWITCH($G332,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>1.22</v>
       </c>
       <c r="G332" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H332" cm="1">
-        <f t="array" ref="H332">_xlfn.SWITCH(G332,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H332">_xlfn.SWITCH($G332,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>1.22</v>
       </c>
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.45">
@@ -7125,15 +7456,16 @@
       <c r="C333">
         <v>2.4434609530000002</v>
       </c>
-      <c r="D333">
-        <v>7.0000000000000007E-2</v>
+      <c r="D333" cm="1">
+        <f t="array" ref="D333">_xlfn.SWITCH($G333,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.65</v>
       </c>
       <c r="G333" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H333" cm="1">
-        <f t="array" ref="H333">_xlfn.SWITCH(G333,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H333">_xlfn.SWITCH($G333,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.65</v>
       </c>
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.45">
@@ -7143,15 +7475,16 @@
       <c r="C334">
         <v>2.5307274149999999</v>
       </c>
-      <c r="D334">
-        <v>7.0000000000000007E-2</v>
+      <c r="D334" cm="1">
+        <f t="array" ref="D334">_xlfn.SWITCH($G334,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.36</v>
       </c>
       <c r="G334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H334" cm="1">
-        <f t="array" ref="H334">_xlfn.SWITCH(G334,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H334">_xlfn.SWITCH($G334,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.45">
@@ -7161,15 +7494,16 @@
       <c r="C335">
         <v>2.6179938780000001</v>
       </c>
-      <c r="D335">
-        <v>0.36</v>
+      <c r="D335" cm="1">
+        <f t="array" ref="D335">_xlfn.SWITCH($G335,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G335" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H335" cm="1">
-        <f t="array" ref="H335">_xlfn.SWITCH(G335,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H335">_xlfn.SWITCH($G335,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.45">
@@ -7179,15 +7513,16 @@
       <c r="C336">
         <v>2.7052603409999998</v>
       </c>
-      <c r="D336">
-        <v>0.94</v>
+      <c r="D336" cm="1">
+        <f t="array" ref="D336">_xlfn.SWITCH($G336,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G336" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H336" cm="1">
-        <f t="array" ref="H336">_xlfn.SWITCH(G336,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H336">_xlfn.SWITCH($G336,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.45">
@@ -7197,15 +7532,16 @@
       <c r="C337">
         <v>2.7925268029999999</v>
       </c>
-      <c r="D337">
-        <v>1.22</v>
+      <c r="D337" cm="1">
+        <f t="array" ref="D337">_xlfn.SWITCH($G337,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G337" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H337" cm="1">
-        <f t="array" ref="H337">_xlfn.SWITCH(G337,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H337">_xlfn.SWITCH($G337,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.45">
@@ -7215,15 +7551,16 @@
       <c r="C338">
         <v>2.8797932660000001</v>
       </c>
-      <c r="D338">
-        <v>1.22</v>
+      <c r="D338" cm="1">
+        <f t="array" ref="D338">_xlfn.SWITCH($G338,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G338" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H338" cm="1">
-        <f t="array" ref="H338">_xlfn.SWITCH(G338,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H338">_xlfn.SWITCH($G338,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.45">
@@ -7233,15 +7570,16 @@
       <c r="C339">
         <v>2.9670597280000002</v>
       </c>
-      <c r="D339">
-        <v>1.22</v>
+      <c r="D339" cm="1">
+        <f t="array" ref="D339">_xlfn.SWITCH($G339,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G339" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H339" cm="1">
-        <f t="array" ref="H339">_xlfn.SWITCH(G339,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H339">_xlfn.SWITCH($G339,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.45">
@@ -7251,15 +7589,16 @@
       <c r="C340">
         <v>3.0543261909999999</v>
       </c>
-      <c r="D340">
-        <v>1.22</v>
+      <c r="D340" cm="1">
+        <f t="array" ref="D340">_xlfn.SWITCH($G340,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G340" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H340" cm="1">
-        <f t="array" ref="H340">_xlfn.SWITCH(G340,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H340">_xlfn.SWITCH($G340,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.45">
@@ -7269,15 +7608,16 @@
       <c r="C341">
         <v>3.1415926540000001</v>
       </c>
-      <c r="D341">
-        <v>1.22</v>
+      <c r="D341" cm="1">
+        <f t="array" ref="D341">_xlfn.SWITCH($G341,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G341" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H341" cm="1">
-        <f t="array" ref="H341">_xlfn.SWITCH(G341,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H341">_xlfn.SWITCH($G341,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.45">
@@ -7287,15 +7627,16 @@
       <c r="C342">
         <v>3.2288591160000002</v>
       </c>
-      <c r="D342">
-        <v>0.94</v>
+      <c r="D342" cm="1">
+        <f t="array" ref="D342">_xlfn.SWITCH($G342,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G342" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H342" cm="1">
-        <f t="array" ref="H342">_xlfn.SWITCH(G342,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H342">_xlfn.SWITCH($G342,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.45">
@@ -7305,15 +7646,16 @@
       <c r="C343">
         <v>3.3161255789999999</v>
       </c>
-      <c r="D343">
-        <v>0.36</v>
+      <c r="D343" cm="1">
+        <f t="array" ref="D343">_xlfn.SWITCH($G343,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G343" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H343" cm="1">
-        <f t="array" ref="H343">_xlfn.SWITCH(G343,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H343">_xlfn.SWITCH($G343,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.45">
@@ -7323,15 +7665,16 @@
       <c r="C344">
         <v>3.403392041</v>
       </c>
-      <c r="D344">
-        <v>0.36</v>
+      <c r="D344" cm="1">
+        <f t="array" ref="D344">_xlfn.SWITCH($G344,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G344" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H344" cm="1">
-        <f t="array" ref="H344">_xlfn.SWITCH(G344,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H344">_xlfn.SWITCH($G344,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.45">
@@ -7341,15 +7684,16 @@
       <c r="C345">
         <v>3.4906585040000002</v>
       </c>
-      <c r="D345">
-        <v>0.36</v>
+      <c r="D345" cm="1">
+        <f t="array" ref="D345">_xlfn.SWITCH($G345,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G345" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H345" cm="1">
-        <f t="array" ref="H345">_xlfn.SWITCH(G345,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H345">_xlfn.SWITCH($G345,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.45">
@@ -7359,15 +7703,16 @@
       <c r="C346">
         <v>3.577924967</v>
       </c>
-      <c r="D346">
-        <v>7.0000000000000007E-2</v>
+      <c r="D346" cm="1">
+        <f t="array" ref="D346">_xlfn.SWITCH($G346,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G346" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H346" cm="1">
-        <f t="array" ref="H346">_xlfn.SWITCH(G346,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H346">_xlfn.SWITCH($G346,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.45">
@@ -7377,15 +7722,16 @@
       <c r="C347">
         <v>3.6651914290000001</v>
       </c>
-      <c r="D347">
-        <v>7.0000000000000007E-2</v>
+      <c r="D347" cm="1">
+        <f t="array" ref="D347">_xlfn.SWITCH($G347,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G347" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H347" cm="1">
-        <f t="array" ref="H347">_xlfn.SWITCH(G347,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H347">_xlfn.SWITCH($G347,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.45">
@@ -7395,14 +7741,15 @@
       <c r="C348">
         <v>4.1887902050000001</v>
       </c>
-      <c r="D348">
+      <c r="D348" cm="1">
+        <f t="array" ref="D348">_xlfn.SWITCH($G348,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G348" t="s">
         <v>8</v>
       </c>
       <c r="H348" cm="1">
-        <f t="array" ref="H348">_xlfn.SWITCH(G348,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H348">_xlfn.SWITCH($G348,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -7413,14 +7760,15 @@
       <c r="C349">
         <v>4.7123889800000001</v>
       </c>
-      <c r="D349">
+      <c r="D349" cm="1">
+        <f t="array" ref="D349">_xlfn.SWITCH($G349,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G349" t="s">
         <v>8</v>
       </c>
       <c r="H349" cm="1">
-        <f t="array" ref="H349">_xlfn.SWITCH(G349,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H349">_xlfn.SWITCH($G349,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -7431,14 +7779,15 @@
       <c r="C350">
         <v>5.2359877560000001</v>
       </c>
-      <c r="D350">
+      <c r="D350" cm="1">
+        <f t="array" ref="D350">_xlfn.SWITCH($G350,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G350" t="s">
         <v>8</v>
       </c>
       <c r="H350" cm="1">
-        <f t="array" ref="H350">_xlfn.SWITCH(G350,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H350">_xlfn.SWITCH($G350,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -7449,14 +7798,15 @@
       <c r="C351">
         <v>5.7595865320000001</v>
       </c>
-      <c r="D351">
+      <c r="D351" cm="1">
+        <f t="array" ref="D351">_xlfn.SWITCH($G351,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G351" t="s">
         <v>8</v>
       </c>
       <c r="H351" cm="1">
-        <f t="array" ref="H351">_xlfn.SWITCH(G351,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H351">_xlfn.SWITCH($G351,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -7467,14 +7817,15 @@
       <c r="C352">
         <v>6.2831853070000001</v>
       </c>
-      <c r="D352">
+      <c r="D352" cm="1">
+        <f t="array" ref="D352">_xlfn.SWITCH($G352,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G352" t="s">
         <v>8</v>
       </c>
       <c r="H352" cm="1">
-        <f t="array" ref="H352">_xlfn.SWITCH(G352,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H352">_xlfn.SWITCH($G352,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -7485,14 +7836,15 @@
       <c r="C353">
         <v>0</v>
       </c>
-      <c r="D353">
+      <c r="D353" cm="1">
+        <f t="array" ref="D353">_xlfn.SWITCH($G353,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G353" t="s">
         <v>8</v>
       </c>
       <c r="H353" cm="1">
-        <f t="array" ref="H353">_xlfn.SWITCH(G353,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H353">_xlfn.SWITCH($G353,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -7503,14 +7855,15 @@
       <c r="C354">
         <v>0.17453292500000001</v>
       </c>
-      <c r="D354">
+      <c r="D354" cm="1">
+        <f t="array" ref="D354">_xlfn.SWITCH($G354,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G354" t="s">
         <v>8</v>
       </c>
       <c r="H354" cm="1">
-        <f t="array" ref="H354">_xlfn.SWITCH(G354,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H354">_xlfn.SWITCH($G354,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -7521,14 +7874,15 @@
       <c r="C355">
         <v>0.34906585000000001</v>
       </c>
-      <c r="D355">
+      <c r="D355" cm="1">
+        <f t="array" ref="D355">_xlfn.SWITCH($G355,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G355" t="s">
         <v>8</v>
       </c>
       <c r="H355" cm="1">
-        <f t="array" ref="H355">_xlfn.SWITCH(G355,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H355">_xlfn.SWITCH($G355,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -7539,15 +7893,16 @@
       <c r="C356">
         <v>0.52359877600000004</v>
       </c>
-      <c r="D356">
-        <v>0.36</v>
+      <c r="D356" cm="1">
+        <f t="array" ref="D356">_xlfn.SWITCH($G356,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G356" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H356" cm="1">
-        <f t="array" ref="H356">_xlfn.SWITCH(G356,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H356">_xlfn.SWITCH($G356,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="2:8" x14ac:dyDescent="0.45">
@@ -7557,15 +7912,16 @@
       <c r="C357">
         <v>0.69813170099999999</v>
       </c>
-      <c r="D357">
-        <v>0.65</v>
+      <c r="D357" cm="1">
+        <f t="array" ref="D357">_xlfn.SWITCH($G357,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G357" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H357" cm="1">
-        <f t="array" ref="H357">_xlfn.SWITCH(G357,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H357">_xlfn.SWITCH($G357,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="2:8" x14ac:dyDescent="0.45">
@@ -7575,15 +7931,16 @@
       <c r="C358">
         <v>0.87266462600000005</v>
       </c>
-      <c r="D358">
-        <v>0.94</v>
+      <c r="D358" cm="1">
+        <f t="array" ref="D358">_xlfn.SWITCH($G358,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G358" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H358" cm="1">
-        <f t="array" ref="H358">_xlfn.SWITCH(G358,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H358">_xlfn.SWITCH($G358,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="2:8" x14ac:dyDescent="0.45">
@@ -7593,15 +7950,16 @@
       <c r="C359">
         <v>1.047197551</v>
       </c>
-      <c r="D359">
-        <v>1.22</v>
+      <c r="D359" cm="1">
+        <f t="array" ref="D359">_xlfn.SWITCH($G359,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G359" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H359" cm="1">
-        <f t="array" ref="H359">_xlfn.SWITCH(G359,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H359">_xlfn.SWITCH($G359,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="2:8" x14ac:dyDescent="0.45">
@@ -7611,15 +7969,16 @@
       <c r="C360">
         <v>1.2217304760000001</v>
       </c>
-      <c r="D360">
-        <v>1.22</v>
+      <c r="D360" cm="1">
+        <f t="array" ref="D360">_xlfn.SWITCH($G360,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G360" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H360" cm="1">
-        <f t="array" ref="H360">_xlfn.SWITCH(G360,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H360">_xlfn.SWITCH($G360,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="2:8" x14ac:dyDescent="0.45">
@@ -7629,15 +7988,16 @@
       <c r="C361">
         <v>1.396263402</v>
       </c>
-      <c r="D361">
-        <v>1.22</v>
+      <c r="D361" cm="1">
+        <f t="array" ref="D361">_xlfn.SWITCH($G361,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G361" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H361" cm="1">
-        <f t="array" ref="H361">_xlfn.SWITCH(G361,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H361">_xlfn.SWITCH($G361,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="362" spans="2:8" x14ac:dyDescent="0.45">
@@ -7647,15 +8007,16 @@
       <c r="C362">
         <v>1.570796327</v>
       </c>
-      <c r="D362">
-        <v>1.22</v>
+      <c r="D362" cm="1">
+        <f t="array" ref="D362">_xlfn.SWITCH($G362,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G362" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H362" cm="1">
-        <f t="array" ref="H362">_xlfn.SWITCH(G362,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H362">_xlfn.SWITCH($G362,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="363" spans="2:8" x14ac:dyDescent="0.45">
@@ -7665,15 +8026,16 @@
       <c r="C363">
         <v>1.6580627889999999</v>
       </c>
-      <c r="D363">
-        <v>1.22</v>
+      <c r="D363" cm="1">
+        <f t="array" ref="D363">_xlfn.SWITCH($G363,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G363" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H363" cm="1">
-        <f t="array" ref="H363">_xlfn.SWITCH(G363,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H363">_xlfn.SWITCH($G363,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="364" spans="2:8" x14ac:dyDescent="0.45">
@@ -7683,15 +8045,16 @@
       <c r="C364">
         <v>1.7453292520000001</v>
       </c>
-      <c r="D364">
-        <v>1.22</v>
+      <c r="D364" cm="1">
+        <f t="array" ref="D364">_xlfn.SWITCH($G364,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G364" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H364" cm="1">
-        <f t="array" ref="H364">_xlfn.SWITCH(G364,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H364">_xlfn.SWITCH($G364,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="365" spans="2:8" x14ac:dyDescent="0.45">
@@ -7701,15 +8064,16 @@
       <c r="C365">
         <v>1.8325957150000001</v>
       </c>
-      <c r="D365">
-        <v>1.22</v>
+      <c r="D365" cm="1">
+        <f t="array" ref="D365">_xlfn.SWITCH($G365,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G365" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H365" cm="1">
-        <f t="array" ref="H365">_xlfn.SWITCH(G365,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H365">_xlfn.SWITCH($G365,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.45">
@@ -7719,15 +8083,16 @@
       <c r="C366">
         <v>1.9198621769999999</v>
       </c>
-      <c r="D366">
-        <v>1.22</v>
+      <c r="D366" cm="1">
+        <f t="array" ref="D366">_xlfn.SWITCH($G366,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G366" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H366" cm="1">
-        <f t="array" ref="H366">_xlfn.SWITCH(G366,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>1.22</v>
+        <f t="array" ref="H366">_xlfn.SWITCH($G366,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.45">
@@ -7737,15 +8102,16 @@
       <c r="C367">
         <v>2.0071286399999999</v>
       </c>
-      <c r="D367">
-        <v>0.94</v>
+      <c r="D367" cm="1">
+        <f t="array" ref="D367">_xlfn.SWITCH($G367,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G367" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H367" cm="1">
-        <f t="array" ref="H367">_xlfn.SWITCH(G367,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H367">_xlfn.SWITCH($G367,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="368" spans="2:8" x14ac:dyDescent="0.45">
@@ -7755,15 +8121,16 @@
       <c r="C368">
         <v>2.094395102</v>
       </c>
-      <c r="D368">
-        <v>0.65</v>
+      <c r="D368" cm="1">
+        <f t="array" ref="D368">_xlfn.SWITCH($G368,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G368" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H368" cm="1">
-        <f t="array" ref="H368">_xlfn.SWITCH(G368,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H368">_xlfn.SWITCH($G368,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="369" spans="2:8" x14ac:dyDescent="0.45">
@@ -7773,14 +8140,15 @@
       <c r="C369">
         <v>2.1816615650000002</v>
       </c>
-      <c r="D369">
+      <c r="D369" cm="1">
+        <f t="array" ref="D369">_xlfn.SWITCH($G369,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0.36</v>
       </c>
       <c r="G369" t="s">
         <v>13</v>
       </c>
       <c r="H369" cm="1">
-        <f t="array" ref="H369">_xlfn.SWITCH(G369,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H369">_xlfn.SWITCH($G369,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0.36</v>
       </c>
     </row>
@@ -7791,14 +8159,15 @@
       <c r="C370">
         <v>2.2689280279999999</v>
       </c>
-      <c r="D370">
+      <c r="D370" cm="1">
+        <f t="array" ref="D370">_xlfn.SWITCH($G370,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0.36</v>
       </c>
       <c r="G370" t="s">
         <v>13</v>
       </c>
       <c r="H370" cm="1">
-        <f t="array" ref="H370">_xlfn.SWITCH(G370,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H370">_xlfn.SWITCH($G370,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0.36</v>
       </c>
     </row>
@@ -7809,15 +8178,16 @@
       <c r="C371">
         <v>2.35619449</v>
       </c>
-      <c r="D371">
-        <v>7.0000000000000007E-2</v>
+      <c r="D371" cm="1">
+        <f t="array" ref="D371">_xlfn.SWITCH($G371,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.65</v>
       </c>
       <c r="G371" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H371" cm="1">
-        <f t="array" ref="H371">_xlfn.SWITCH(G371,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H371">_xlfn.SWITCH($G371,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0.65</v>
       </c>
     </row>
     <row r="372" spans="2:8" x14ac:dyDescent="0.45">
@@ -7827,14 +8197,15 @@
       <c r="C372">
         <v>2.4434609530000002</v>
       </c>
-      <c r="D372">
+      <c r="D372" cm="1">
+        <f t="array" ref="D372">_xlfn.SWITCH($G372,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0.36</v>
       </c>
       <c r="G372" t="s">
         <v>13</v>
       </c>
       <c r="H372" cm="1">
-        <f t="array" ref="H372">_xlfn.SWITCH(G372,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H372">_xlfn.SWITCH($G372,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0.36</v>
       </c>
     </row>
@@ -7845,15 +8216,16 @@
       <c r="C373">
         <v>2.5307274149999999</v>
       </c>
-      <c r="D373">
-        <v>0.36</v>
+      <c r="D373" cm="1">
+        <f t="array" ref="D373">_xlfn.SWITCH($G373,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G373" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H373" cm="1">
-        <f t="array" ref="H373">_xlfn.SWITCH(G373,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H373">_xlfn.SWITCH($G373,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="374" spans="2:8" x14ac:dyDescent="0.45">
@@ -7863,15 +8235,16 @@
       <c r="C374">
         <v>2.6179938780000001</v>
       </c>
-      <c r="D374">
-        <v>0.36</v>
+      <c r="D374" cm="1">
+        <f t="array" ref="D374">_xlfn.SWITCH($G374,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G374" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H374" cm="1">
-        <f t="array" ref="H374">_xlfn.SWITCH(G374,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H374">_xlfn.SWITCH($G374,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="375" spans="2:8" x14ac:dyDescent="0.45">
@@ -7881,15 +8254,16 @@
       <c r="C375">
         <v>2.7052603409999998</v>
       </c>
-      <c r="D375">
-        <v>0.65</v>
+      <c r="D375" cm="1">
+        <f t="array" ref="D375">_xlfn.SWITCH($G375,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G375" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H375" cm="1">
-        <f t="array" ref="H375">_xlfn.SWITCH(G375,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H375">_xlfn.SWITCH($G375,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="2:8" x14ac:dyDescent="0.45">
@@ -7899,15 +8273,16 @@
       <c r="C376">
         <v>2.7925268029999999</v>
       </c>
-      <c r="D376">
-        <v>0.65</v>
+      <c r="D376" cm="1">
+        <f t="array" ref="D376">_xlfn.SWITCH($G376,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G376" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H376" cm="1">
-        <f t="array" ref="H376">_xlfn.SWITCH(G376,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H376">_xlfn.SWITCH($G376,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="2:8" x14ac:dyDescent="0.45">
@@ -7917,15 +8292,16 @@
       <c r="C377">
         <v>2.8797932660000001</v>
       </c>
-      <c r="D377">
-        <v>0.94</v>
+      <c r="D377" cm="1">
+        <f t="array" ref="D377">_xlfn.SWITCH($G377,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G377" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H377" cm="1">
-        <f t="array" ref="H377">_xlfn.SWITCH(G377,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.94</v>
+        <f t="array" ref="H377">_xlfn.SWITCH($G377,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="2:8" x14ac:dyDescent="0.45">
@@ -7935,15 +8311,16 @@
       <c r="C378">
         <v>2.9670597280000002</v>
       </c>
-      <c r="D378">
-        <v>0.65</v>
+      <c r="D378" cm="1">
+        <f t="array" ref="D378">_xlfn.SWITCH($G378,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G378" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H378" cm="1">
-        <f t="array" ref="H378">_xlfn.SWITCH(G378,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H378">_xlfn.SWITCH($G378,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="2:8" x14ac:dyDescent="0.45">
@@ -7953,15 +8330,16 @@
       <c r="C379">
         <v>3.0543261909999999</v>
       </c>
-      <c r="D379">
-        <v>0.65</v>
+      <c r="D379" cm="1">
+        <f t="array" ref="D379">_xlfn.SWITCH($G379,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G379" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H379" cm="1">
-        <f t="array" ref="H379">_xlfn.SWITCH(G379,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H379">_xlfn.SWITCH($G379,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="2:8" x14ac:dyDescent="0.45">
@@ -7971,15 +8349,16 @@
       <c r="C380">
         <v>3.1415926540000001</v>
       </c>
-      <c r="D380">
-        <v>0.65</v>
+      <c r="D380" cm="1">
+        <f t="array" ref="D380">_xlfn.SWITCH($G380,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G380" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H380" cm="1">
-        <f t="array" ref="H380">_xlfn.SWITCH(G380,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.65</v>
+        <f t="array" ref="H380">_xlfn.SWITCH($G380,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="2:8" x14ac:dyDescent="0.45">
@@ -7989,15 +8368,16 @@
       <c r="C381">
         <v>3.2288591160000002</v>
       </c>
-      <c r="D381">
-        <v>0.36</v>
+      <c r="D381" cm="1">
+        <f t="array" ref="D381">_xlfn.SWITCH($G381,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G381" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H381" cm="1">
-        <f t="array" ref="H381">_xlfn.SWITCH(G381,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>0.36</v>
+        <f t="array" ref="H381">_xlfn.SWITCH($G381,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="2:8" x14ac:dyDescent="0.45">
@@ -8007,15 +8387,16 @@
       <c r="C382">
         <v>3.3161255789999999</v>
       </c>
-      <c r="D382">
-        <v>7.0000000000000007E-2</v>
+      <c r="D382" cm="1">
+        <f t="array" ref="D382">_xlfn.SWITCH($G382,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G382" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H382" cm="1">
-        <f t="array" ref="H382">_xlfn.SWITCH(G382,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H382">_xlfn.SWITCH($G382,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.45">
@@ -8025,15 +8406,16 @@
       <c r="C383">
         <v>3.403392041</v>
       </c>
-      <c r="D383">
-        <v>7.0000000000000007E-2</v>
+      <c r="D383" cm="1">
+        <f t="array" ref="D383">_xlfn.SWITCH($G383,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G383" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H383" cm="1">
-        <f t="array" ref="H383">_xlfn.SWITCH(G383,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H383">_xlfn.SWITCH($G383,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="2:8" x14ac:dyDescent="0.45">
@@ -8043,15 +8425,16 @@
       <c r="C384">
         <v>3.4906585040000002</v>
       </c>
-      <c r="D384">
-        <v>7.0000000000000007E-2</v>
+      <c r="D384" cm="1">
+        <f t="array" ref="D384">_xlfn.SWITCH($G384,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G384" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H384" cm="1">
-        <f t="array" ref="H384">_xlfn.SWITCH(G384,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H384">_xlfn.SWITCH($G384,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.45">
@@ -8061,15 +8444,16 @@
       <c r="C385">
         <v>3.577924967</v>
       </c>
-      <c r="D385">
-        <v>7.0000000000000007E-2</v>
+      <c r="D385" cm="1">
+        <f t="array" ref="D385">_xlfn.SWITCH($G385,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G385" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H385" cm="1">
-        <f t="array" ref="H385">_xlfn.SWITCH(G385,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H385">_xlfn.SWITCH($G385,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.45">
@@ -8079,15 +8463,16 @@
       <c r="C386">
         <v>3.6651914290000001</v>
       </c>
-      <c r="D386">
-        <v>7.0000000000000007E-2</v>
+      <c r="D386" cm="1">
+        <f t="array" ref="D386">_xlfn.SWITCH($G386,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="G386" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H386" cm="1">
-        <f t="array" ref="H386">_xlfn.SWITCH(G386,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="array" ref="H386">_xlfn.SWITCH($G386,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.45">
@@ -8097,14 +8482,15 @@
       <c r="C387">
         <v>4.1887902050000001</v>
       </c>
-      <c r="D387">
+      <c r="D387" cm="1">
+        <f t="array" ref="D387">_xlfn.SWITCH($G387,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G387" t="s">
         <v>8</v>
       </c>
       <c r="H387" cm="1">
-        <f t="array" ref="H387">_xlfn.SWITCH(G387,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H387">_xlfn.SWITCH($G387,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -8115,14 +8501,15 @@
       <c r="C388">
         <v>4.7123889800000001</v>
       </c>
-      <c r="D388">
+      <c r="D388" cm="1">
+        <f t="array" ref="D388">_xlfn.SWITCH($G388,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G388" t="s">
         <v>8</v>
       </c>
       <c r="H388" cm="1">
-        <f t="array" ref="H388">_xlfn.SWITCH(G388,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H388">_xlfn.SWITCH($G388,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -8133,14 +8520,15 @@
       <c r="C389">
         <v>5.2359877560000001</v>
       </c>
-      <c r="D389">
+      <c r="D389" cm="1">
+        <f t="array" ref="D389">_xlfn.SWITCH($G389,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G389" t="s">
         <v>8</v>
       </c>
       <c r="H389" cm="1">
-        <f t="array" ref="H389">_xlfn.SWITCH(G389,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H389">_xlfn.SWITCH($G389,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -8151,14 +8539,15 @@
       <c r="C390">
         <v>5.7595865320000001</v>
       </c>
-      <c r="D390">
+      <c r="D390" cm="1">
+        <f t="array" ref="D390">_xlfn.SWITCH($G390,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G390" t="s">
         <v>8</v>
       </c>
       <c r="H390" cm="1">
-        <f t="array" ref="H390">_xlfn.SWITCH(G390,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H390">_xlfn.SWITCH($G390,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
@@ -8169,14 +8558,15 @@
       <c r="C391">
         <v>6.2831853070000001</v>
       </c>
-      <c r="D391">
+      <c r="D391" cm="1">
+        <f t="array" ref="D391">_xlfn.SWITCH($G391,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
       <c r="G391" t="s">
         <v>8</v>
       </c>
       <c r="H391" cm="1">
-        <f t="array" ref="H391">_xlfn.SWITCH(G391,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
+        <f t="array" ref="H391">_xlfn.SWITCH($G391,$J$1,$K$1,$J$2,$K$2,$J$3,$K$3,$J$4,$K$4,$J$5,$K$5,$J$6,$K$6,$J$7,$K$7,$J$8,$K$8)</f>
         <v>0</v>
       </c>
     </row>
